--- a/Modelo BD.xlsx
+++ b/Modelo BD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +614,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,6 +894,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -912,11 +927,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,11 +1224,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BB55" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BD52" sqref="BD52"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,72 +1299,72 @@
   <sheetData>
     <row r="1" spans="1:190" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="7"/>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="52" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="52" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="52" t="s">
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="50" t="s">
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="50" t="s">
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="50" t="s">
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="BE1" s="51"/>
+      <c r="BE1" s="54"/>
       <c r="BF1" s="35" t="s">
         <v>94</v>
       </c>
@@ -1516,55 +1540,55 @@
       <c r="BG2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57"/>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57"/>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="57"/>
-      <c r="BP2" s="57"/>
-      <c r="BQ2" s="57"/>
-      <c r="BR2" s="57"/>
-      <c r="BS2" s="57"/>
-      <c r="BT2" s="57"/>
-      <c r="BU2" s="57"/>
-      <c r="BV2" s="57"/>
-      <c r="BW2" s="57"/>
-      <c r="BX2" s="57"/>
-      <c r="BY2" s="57"/>
-      <c r="BZ2" s="57"/>
-      <c r="CA2" s="57"/>
-      <c r="CB2" s="57"/>
-      <c r="CC2" s="57"/>
-      <c r="CD2" s="57"/>
-      <c r="CE2" s="57"/>
-      <c r="CF2" s="57"/>
-      <c r="CG2" s="57"/>
-      <c r="CH2" s="57"/>
-      <c r="CI2" s="57"/>
-      <c r="CJ2" s="57"/>
-      <c r="CK2" s="57"/>
-      <c r="CL2" s="57"/>
-      <c r="CM2" s="57"/>
-      <c r="CN2" s="57"/>
-      <c r="CO2" s="57"/>
-      <c r="CP2" s="57"/>
-      <c r="CQ2" s="57"/>
-      <c r="CR2" s="57"/>
-      <c r="CS2" s="57"/>
-      <c r="CT2" s="57"/>
-      <c r="CU2" s="57"/>
-      <c r="CV2" s="57"/>
-      <c r="CW2" s="57"/>
-      <c r="CX2" s="57"/>
-      <c r="CY2" s="57"/>
-      <c r="CZ2" s="57"/>
-      <c r="DA2" s="57"/>
-      <c r="DB2" s="57"/>
-      <c r="DC2" s="57"/>
-      <c r="DD2" s="57"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
+      <c r="BX2" s="49"/>
+      <c r="BY2" s="49"/>
+      <c r="BZ2" s="49"/>
+      <c r="CA2" s="49"/>
+      <c r="CB2" s="49"/>
+      <c r="CC2" s="49"/>
+      <c r="CD2" s="49"/>
+      <c r="CE2" s="49"/>
+      <c r="CF2" s="49"/>
+      <c r="CG2" s="49"/>
+      <c r="CH2" s="49"/>
+      <c r="CI2" s="49"/>
+      <c r="CJ2" s="49"/>
+      <c r="CK2" s="49"/>
+      <c r="CL2" s="49"/>
+      <c r="CM2" s="49"/>
+      <c r="CN2" s="49"/>
+      <c r="CO2" s="49"/>
+      <c r="CP2" s="49"/>
+      <c r="CQ2" s="49"/>
+      <c r="CR2" s="49"/>
+      <c r="CS2" s="49"/>
+      <c r="CT2" s="49"/>
+      <c r="CU2" s="49"/>
+      <c r="CV2" s="49"/>
+      <c r="CW2" s="49"/>
+      <c r="CX2" s="49"/>
+      <c r="CY2" s="49"/>
+      <c r="CZ2" s="49"/>
+      <c r="DA2" s="49"/>
+      <c r="DB2" s="49"/>
+      <c r="DC2" s="49"/>
+      <c r="DD2" s="49"/>
       <c r="DE2" s="5"/>
       <c r="DF2" s="5"/>
       <c r="DG2" s="5"/>
@@ -1648,8 +1672,8 @@
       <c r="GG2" s="5"/>
       <c r="GH2" s="5"/>
     </row>
-    <row r="3" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:190" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -1720,55 +1744,55 @@
       <c r="BE3" s="29"/>
       <c r="BF3" s="41"/>
       <c r="BG3" s="37"/>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="58"/>
-      <c r="BK3" s="58"/>
-      <c r="BL3" s="58"/>
-      <c r="BM3" s="58"/>
-      <c r="BN3" s="58"/>
-      <c r="BO3" s="58"/>
-      <c r="BP3" s="58"/>
-      <c r="BQ3" s="58"/>
-      <c r="BR3" s="58"/>
-      <c r="BS3" s="58"/>
-      <c r="BT3" s="58"/>
-      <c r="BU3" s="58"/>
-      <c r="BV3" s="58"/>
-      <c r="BW3" s="58"/>
-      <c r="BX3" s="58"/>
-      <c r="BY3" s="58"/>
-      <c r="BZ3" s="58"/>
-      <c r="CA3" s="58"/>
-      <c r="CB3" s="58"/>
-      <c r="CC3" s="58"/>
-      <c r="CD3" s="58"/>
-      <c r="CE3" s="58"/>
-      <c r="CF3" s="58"/>
-      <c r="CG3" s="58"/>
-      <c r="CH3" s="58"/>
-      <c r="CI3" s="58"/>
-      <c r="CJ3" s="58"/>
-      <c r="CK3" s="58"/>
-      <c r="CL3" s="58"/>
-      <c r="CM3" s="58"/>
-      <c r="CN3" s="58"/>
-      <c r="CO3" s="58"/>
-      <c r="CP3" s="58"/>
-      <c r="CQ3" s="58"/>
-      <c r="CR3" s="58"/>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="58"/>
-      <c r="CU3" s="58"/>
-      <c r="CV3" s="58"/>
-      <c r="CW3" s="58"/>
-      <c r="CX3" s="58"/>
-      <c r="CY3" s="58"/>
-      <c r="CZ3" s="58"/>
-      <c r="DA3" s="58"/>
-      <c r="DB3" s="58"/>
-      <c r="DC3" s="58"/>
-      <c r="DD3" s="58"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="50"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="50"/>
+      <c r="BP3" s="50"/>
+      <c r="BQ3" s="50"/>
+      <c r="BR3" s="50"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="50"/>
+      <c r="BU3" s="50"/>
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="50"/>
+      <c r="BX3" s="50"/>
+      <c r="BY3" s="50"/>
+      <c r="BZ3" s="50"/>
+      <c r="CA3" s="50"/>
+      <c r="CB3" s="50"/>
+      <c r="CC3" s="50"/>
+      <c r="CD3" s="50"/>
+      <c r="CE3" s="50"/>
+      <c r="CF3" s="50"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="50"/>
+      <c r="CI3" s="50"/>
+      <c r="CJ3" s="50"/>
+      <c r="CK3" s="50"/>
+      <c r="CL3" s="50"/>
+      <c r="CM3" s="50"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="50"/>
+      <c r="CP3" s="50"/>
+      <c r="CQ3" s="50"/>
+      <c r="CR3" s="50"/>
+      <c r="CS3" s="50"/>
+      <c r="CT3" s="50"/>
+      <c r="CU3" s="50"/>
+      <c r="CV3" s="50"/>
+      <c r="CW3" s="50"/>
+      <c r="CX3" s="50"/>
+      <c r="CY3" s="50"/>
+      <c r="CZ3" s="50"/>
+      <c r="DA3" s="50"/>
+      <c r="DB3" s="50"/>
+      <c r="DC3" s="50"/>
+      <c r="DD3" s="50"/>
       <c r="DE3" s="2"/>
       <c r="DF3" s="2"/>
       <c r="DG3" s="2"/>
@@ -1852,8 +1876,8 @@
       <c r="GG3" s="2"/>
       <c r="GH3" s="2"/>
     </row>
-    <row r="4" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+    <row r="4" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1863,12 +1887,12 @@
       <c r="E4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+    <row r="5" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
@@ -1878,12 +1902,12 @@
       <c r="E5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+    <row r="6" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
@@ -1893,12 +1917,12 @@
       <c r="E6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+    <row r="7" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
@@ -1908,12 +1932,12 @@
       <c r="E7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+    <row r="8" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64"/>
       <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
@@ -1923,12 +1947,13 @@
       <c r="E8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>18</v>
-      </c>
+      <c r="F8" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="62"/>
     </row>
-    <row r="9" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+    <row r="9" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
       <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1938,12 +1963,12 @@
       <c r="E9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+    <row r="10" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
       <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
@@ -1953,12 +1978,12 @@
       <c r="E10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+    <row r="11" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
       <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
@@ -1968,12 +1993,12 @@
       <c r="E11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+    <row r="12" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
       <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
@@ -1983,12 +2008,12 @@
       <c r="E12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+    <row r="13" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
       <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
@@ -1998,12 +2023,12 @@
       <c r="E13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+    <row r="14" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
       <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
@@ -2013,12 +2038,12 @@
       <c r="E14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+    <row r="15" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
       <c r="B15" s="18" t="s">
         <v>14</v>
       </c>
@@ -2028,12 +2053,12 @@
       <c r="E15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+    <row r="16" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
       <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
@@ -2043,12 +2068,12 @@
       <c r="E16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+    <row r="17" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
       <c r="B17" s="18" t="s">
         <v>14</v>
       </c>
@@ -2058,12 +2083,12 @@
       <c r="E17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+    <row r="18" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
       <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
@@ -2073,12 +2098,12 @@
       <c r="E18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+    <row r="19" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
       <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
@@ -2088,7 +2113,7 @@
       <c r="E19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="61" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2153,7 +2178,7 @@
       <c r="BG20" s="39"/>
     </row>
     <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="52" t="s">
         <v>101</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -2173,7 +2198,7 @@
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="18" t="s">
         <v>12</v>
       </c>
@@ -2189,9 +2214,10 @@
       <c r="G22" s="15" t="s">
         <v>18</v>
       </c>
+      <c r="I22" s="63"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
@@ -2266,7 +2292,7 @@
       <c r="BG24" s="39"/>
     </row>
     <row r="25" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="52" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -2286,7 +2312,7 @@
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
@@ -2304,7 +2330,7 @@
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="18" t="s">
         <v>14</v>
       </c>
@@ -2379,7 +2405,7 @@
       <c r="BG28" s="39"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="59" t="s">
         <v>99</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -2400,7 +2426,7 @@
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="18" t="s">
         <v>12</v>
       </c>
@@ -2418,7 +2444,7 @@
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="18" t="s">
         <v>14</v>
       </c>
@@ -2493,7 +2519,7 @@
       <c r="BG32" s="39"/>
     </row>
     <row r="33" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="52" t="s">
         <v>98</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -2514,7 +2540,7 @@
       </c>
     </row>
     <row r="34" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="18" t="s">
         <v>12</v>
       </c>
@@ -2532,7 +2558,7 @@
       </c>
     </row>
     <row r="35" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="18" t="s">
         <v>12</v>
       </c>
@@ -2547,7 +2573,7 @@
       </c>
     </row>
     <row r="36" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="18" t="s">
         <v>14</v>
       </c>
@@ -2562,7 +2588,7 @@
       </c>
     </row>
     <row r="37" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="18" t="s">
         <v>13</v>
       </c>
@@ -2637,7 +2663,7 @@
       <c r="BG38" s="39"/>
     </row>
     <row r="39" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="52" t="s">
         <v>95</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -2798,7 +2824,7 @@
       </c>
     </row>
     <row r="40" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="18" t="s">
         <v>12</v>
       </c>
@@ -2957,7 +2983,7 @@
       </c>
     </row>
     <row r="41" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="18" t="s">
         <v>12</v>
       </c>
@@ -3171,7 +3197,7 @@
       <c r="DD41" s="7"/>
     </row>
     <row r="42" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="18" t="s">
         <v>112</v>
       </c>
@@ -3379,7 +3405,7 @@
       <c r="DD42" s="7"/>
     </row>
     <row r="43" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="18" t="s">
         <v>13</v>
       </c>
@@ -3478,7 +3504,7 @@
       </c>
     </row>
     <row r="44" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="18" t="s">
         <v>12</v>
       </c>
@@ -3680,7 +3706,7 @@
       <c r="DD44" s="7"/>
     </row>
     <row r="45" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="18" t="s">
         <v>13</v>
       </c>
@@ -3804,7 +3830,7 @@
       <c r="DD45" s="7"/>
     </row>
     <row r="46" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="18" t="s">
         <v>13</v>
       </c>
@@ -3936,7 +3962,7 @@
       <c r="DD46" s="7"/>
     </row>
     <row r="47" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="18" t="s">
         <v>13</v>
       </c>
@@ -4064,7 +4090,7 @@
       <c r="DD47" s="7"/>
     </row>
     <row r="48" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="18" t="s">
         <v>112</v>
       </c>
@@ -4190,7 +4216,7 @@
       <c r="DD48" s="7"/>
     </row>
     <row r="49" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="18" t="s">
         <v>13</v>
       </c>
@@ -4316,7 +4342,7 @@
       <c r="DD49" s="7"/>
     </row>
     <row r="50" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="18" t="s">
         <v>112</v>
       </c>
@@ -4364,7 +4390,7 @@
       </c>
     </row>
     <row r="51" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="18" t="s">
         <v>112</v>
       </c>
@@ -4492,7 +4518,7 @@
       <c r="DD51" s="7"/>
     </row>
     <row r="52" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="18" t="s">
         <v>112</v>
       </c>
@@ -4652,7 +4678,7 @@
       <c r="DD52" s="7"/>
     </row>
     <row r="53" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="18" t="s">
         <v>112</v>
       </c>
@@ -4806,7 +4832,7 @@
       <c r="DD53" s="7"/>
     </row>
     <row r="54" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="18" t="s">
         <v>112</v>
       </c>
@@ -4986,7 +5012,7 @@
       <c r="BG55" s="39"/>
     </row>
     <row r="56" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="52" t="s">
         <v>97</v>
       </c>
       <c r="B56" s="18" t="s">
@@ -5027,7 +5053,7 @@
       </c>
     </row>
     <row r="57" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="18" t="s">
         <v>112</v>
       </c>
@@ -5048,7 +5074,7 @@
       </c>
     </row>
     <row r="58" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="18" t="s">
         <v>112</v>
       </c>
@@ -5168,7 +5194,7 @@
       <c r="DD58" s="7"/>
     </row>
     <row r="59" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="18" t="s">
         <v>112</v>
       </c>
@@ -5288,7 +5314,7 @@
       <c r="DD59" s="7"/>
     </row>
     <row r="60" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="18" t="s">
         <v>13</v>
       </c>
@@ -5319,7 +5345,7 @@
       <c r="Y60" s="24"/>
     </row>
     <row r="61" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="18" t="s">
         <v>112</v>
       </c>
@@ -5437,7 +5463,7 @@
       <c r="DD61" s="7"/>
     </row>
     <row r="62" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="18" t="s">
         <v>112</v>
       </c>
@@ -5555,7 +5581,7 @@
       <c r="DD62" s="7"/>
     </row>
     <row r="63" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="18" t="s">
         <v>13</v>
       </c>
@@ -5573,7 +5599,7 @@
       </c>
     </row>
     <row r="64" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="18" t="s">
         <v>13</v>
       </c>
@@ -5691,7 +5717,7 @@
       <c r="DD64" s="7"/>
     </row>
     <row r="65" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="18" t="s">
         <v>13</v>
       </c>
@@ -5809,7 +5835,7 @@
       <c r="DD65" s="7"/>
     </row>
     <row r="66" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="18" t="s">
         <v>13</v>
       </c>
@@ -5927,7 +5953,7 @@
       <c r="DD66" s="7"/>
     </row>
     <row r="67" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="18" t="s">
         <v>13</v>
       </c>
@@ -6045,7 +6071,7 @@
       <c r="DD67" s="7"/>
     </row>
     <row r="68" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="18" t="s">
         <v>12</v>
       </c>
@@ -6167,7 +6193,7 @@
       <c r="DD68" s="7"/>
     </row>
     <row r="69" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="18" t="s">
         <v>12</v>
       </c>
@@ -6248,7 +6274,7 @@
       <c r="BG70" s="39"/>
     </row>
     <row r="71" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="49" t="s">
+      <c r="A71" s="52" t="s">
         <v>130</v>
       </c>
       <c r="B71" s="18" t="s">
@@ -6404,7 +6430,7 @@
       <c r="DD71" s="7"/>
     </row>
     <row r="72" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="18" t="s">
         <v>14</v>
       </c>
@@ -6522,7 +6548,7 @@
       <c r="DD72" s="7"/>
     </row>
     <row r="73" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="18" t="s">
         <v>14</v>
       </c>
@@ -6646,7 +6672,7 @@
       <c r="DD73" s="7"/>
     </row>
     <row r="74" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="18" t="s">
         <v>14</v>
       </c>
@@ -6764,7 +6790,7 @@
       <c r="DD74" s="7"/>
     </row>
     <row r="75" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="18" t="s">
         <v>14</v>
       </c>
@@ -6882,7 +6908,7 @@
       <c r="DD75" s="7"/>
     </row>
     <row r="76" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="18" t="s">
         <v>13</v>
       </c>
@@ -7000,7 +7026,7 @@
       <c r="DD76" s="7"/>
     </row>
     <row r="77" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="18" t="s">
         <v>13</v>
       </c>
@@ -7118,7 +7144,7 @@
       <c r="DD77" s="7"/>
     </row>
     <row r="78" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="18" t="s">
         <v>13</v>
       </c>
@@ -7236,7 +7262,7 @@
       <c r="DD78" s="7"/>
     </row>
     <row r="79" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="18" t="s">
         <v>14</v>
       </c>
@@ -7372,7 +7398,7 @@
       <c r="DD79" s="7"/>
     </row>
     <row r="80" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
@@ -7494,7 +7520,7 @@
       <c r="DD80" s="7"/>
     </row>
     <row r="81" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="18" t="s">
         <v>13</v>
       </c>
@@ -7616,7 +7642,7 @@
       <c r="DD81" s="7"/>
     </row>
     <row r="82" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="18" t="s">
         <v>14</v>
       </c>
@@ -7736,7 +7762,7 @@
       <c r="DD82" s="7"/>
     </row>
     <row r="83" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="18" t="s">
         <v>14</v>
       </c>
@@ -7914,7 +7940,7 @@
       <c r="BG84" s="39"/>
     </row>
     <row r="85" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="52" t="s">
         <v>146</v>
       </c>
       <c r="B85" s="18" t="s">
@@ -8056,7 +8082,7 @@
       <c r="DD85" s="7"/>
     </row>
     <row r="86" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="18" t="s">
         <v>112</v>
       </c>
@@ -8174,7 +8200,7 @@
       <c r="DD86" s="7"/>
     </row>
     <row r="87" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="18" t="s">
         <v>13</v>
       </c>
@@ -8304,7 +8330,7 @@
       <c r="DD87" s="7"/>
     </row>
     <row r="88" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="18" t="s">
         <v>13</v>
       </c>
@@ -8432,7 +8458,7 @@
       <c r="DD88" s="7"/>
     </row>
     <row r="89" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="18" t="s">
         <v>112</v>
       </c>
@@ -8550,7 +8576,7 @@
       <c r="DD89" s="7"/>
     </row>
     <row r="90" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="18" t="s">
         <v>13</v>
       </c>
@@ -8668,7 +8694,7 @@
       <c r="DD90" s="7"/>
     </row>
     <row r="91" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="18" t="s">
         <v>112</v>
       </c>
@@ -8786,7 +8812,7 @@
       <c r="DD91" s="7"/>
     </row>
     <row r="92" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="18" t="s">
         <v>13</v>
       </c>
@@ -8968,7 +8994,7 @@
       <c r="BG93" s="39"/>
     </row>
     <row r="94" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="52" t="s">
         <v>156</v>
       </c>
       <c r="B94" s="18" t="s">
@@ -9094,7 +9120,7 @@
       <c r="DD94" s="7"/>
     </row>
     <row r="95" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="18" t="s">
         <v>13</v>
       </c>
@@ -9214,7 +9240,7 @@
       <c r="DD95" s="7"/>
     </row>
     <row r="96" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="18" t="s">
         <v>112</v>
       </c>
@@ -9332,7 +9358,7 @@
       <c r="DD96" s="7"/>
     </row>
     <row r="97" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="18" t="s">
         <v>112</v>
       </c>
@@ -9450,7 +9476,7 @@
       <c r="DD97" s="7"/>
     </row>
     <row r="98" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="18" t="s">
         <v>13</v>
       </c>
@@ -9570,7 +9596,7 @@
       <c r="DD98" s="7"/>
     </row>
     <row r="99" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="49"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="18" t="s">
         <v>112</v>
       </c>
@@ -9688,7 +9714,7 @@
       <c r="DD99" s="7"/>
     </row>
     <row r="100" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="18" t="s">
         <v>112</v>
       </c>
@@ -9806,7 +9832,7 @@
       <c r="DD100" s="7"/>
     </row>
     <row r="101" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="49"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="18" t="s">
         <v>112</v>
       </c>
@@ -9924,7 +9950,7 @@
       <c r="DD101" s="7"/>
     </row>
     <row r="102" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="18" t="s">
         <v>13</v>
       </c>
@@ -10104,7 +10130,7 @@
       <c r="BG103" s="39"/>
     </row>
     <row r="104" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="49" t="s">
+      <c r="A104" s="52" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
@@ -10230,7 +10256,7 @@
       <c r="DD104" s="7"/>
     </row>
     <row r="105" spans="1:108" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="49"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="18" t="s">
         <v>112</v>
       </c>
@@ -10348,7 +10374,7 @@
       <c r="DD105" s="7"/>
     </row>
     <row r="106" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="49"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="18" t="s">
         <v>13</v>
       </c>
@@ -10466,7 +10492,7 @@
       <c r="DD106" s="7"/>
     </row>
     <row r="107" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="49"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="18" t="s">
         <v>13</v>
       </c>
@@ -10584,7 +10610,7 @@
       <c r="DD107" s="7"/>
     </row>
     <row r="108" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="49"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="18" t="s">
         <v>13</v>
       </c>
@@ -10702,7 +10728,7 @@
       <c r="DD108" s="7"/>
     </row>
     <row r="109" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="49"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="18" t="s">
         <v>13</v>
       </c>
@@ -10820,7 +10846,7 @@
       <c r="DD109" s="7"/>
     </row>
     <row r="110" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="18" t="s">
         <v>13</v>
       </c>
@@ -10938,7 +10964,7 @@
       <c r="DD110" s="7"/>
     </row>
     <row r="111" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="49"/>
+      <c r="A111" s="52"/>
       <c r="B111" s="18" t="s">
         <v>13</v>
       </c>
@@ -11056,7 +11082,7 @@
       <c r="DD111" s="7"/>
     </row>
     <row r="112" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
+      <c r="A112" s="52"/>
       <c r="B112" s="18" t="s">
         <v>112</v>
       </c>
@@ -11174,7 +11200,7 @@
       <c r="DD112" s="7"/>
     </row>
     <row r="113" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
+      <c r="A113" s="52"/>
       <c r="B113" s="18" t="s">
         <v>13</v>
       </c>
@@ -11402,7 +11428,7 @@
       <c r="DD114" s="7"/>
     </row>
     <row r="115" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="49" t="s">
+      <c r="A115" s="52" t="s">
         <v>103</v>
       </c>
       <c r="B115" s="18" t="s">
@@ -11522,7 +11548,7 @@
       <c r="DD115" s="7"/>
     </row>
     <row r="116" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="49"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="18" t="s">
         <v>14</v>
       </c>
@@ -11638,7 +11664,7 @@
       <c r="DD116" s="7"/>
     </row>
     <row r="117" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="49"/>
+      <c r="A117" s="52"/>
       <c r="B117" s="18" t="s">
         <v>14</v>
       </c>
@@ -11754,7 +11780,7 @@
       <c r="DD117" s="7"/>
     </row>
     <row r="118" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="49"/>
+      <c r="A118" s="52"/>
       <c r="B118" s="18" t="s">
         <v>14</v>
       </c>
@@ -11870,7 +11896,7 @@
       <c r="DD118" s="7"/>
     </row>
     <row r="119" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="49"/>
+      <c r="A119" s="52"/>
       <c r="B119" s="18" t="s">
         <v>14</v>
       </c>
@@ -12046,7 +12072,7 @@
       <c r="BG120" s="39"/>
     </row>
     <row r="121" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A121" s="49" t="s">
+      <c r="A121" s="52" t="s">
         <v>103</v>
       </c>
       <c r="B121" s="18" t="s">
@@ -12207,7 +12233,7 @@
       </c>
     </row>
     <row r="122" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
+      <c r="A122" s="52"/>
       <c r="B122" s="18" t="s">
         <v>14</v>
       </c>
@@ -12363,7 +12389,7 @@
       </c>
     </row>
     <row r="123" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A123" s="49"/>
+      <c r="A123" s="52"/>
       <c r="B123" s="18" t="s">
         <v>14</v>
       </c>
@@ -12519,7 +12545,7 @@
       </c>
     </row>
     <row r="124" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A124" s="49"/>
+      <c r="A124" s="52"/>
       <c r="B124" s="18" t="s">
         <v>14</v>
       </c>
@@ -12675,7 +12701,7 @@
       </c>
     </row>
     <row r="125" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A125" s="49"/>
+      <c r="A125" s="52"/>
       <c r="B125" s="18" t="s">
         <v>14</v>
       </c>

--- a/Modelo BD.xlsx
+++ b/Modelo BD.xlsx
@@ -756,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,6 +903,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -921,25 +933,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1228,7 +1231,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,72 +1302,72 @@
   <sheetData>
     <row r="1" spans="1:190" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="7"/>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="55" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="55" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="55" t="s">
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="53" t="s">
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="53" t="s">
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="53" t="s">
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="BE1" s="54"/>
+      <c r="BE1" s="58"/>
       <c r="BF1" s="35" t="s">
         <v>94</v>
       </c>
@@ -1673,7 +1676,7 @@
       <c r="GH2" s="5"/>
     </row>
     <row r="3" spans="1:190" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -1688,7 +1691,7 @@
       <c r="E3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="51" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="13"/>
@@ -1876,8 +1879,8 @@
       <c r="GG3" s="2"/>
       <c r="GH3" s="2"/>
     </row>
-    <row r="4" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
+    <row r="4" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1891,8 +1894,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+    <row r="5" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
@@ -1906,8 +1909,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
+    <row r="6" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
@@ -1921,8 +1924,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+    <row r="7" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
@@ -1936,8 +1939,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+    <row r="8" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A8" s="62"/>
       <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
@@ -1950,10 +1953,10 @@
       <c r="F8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="62"/>
+      <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+    <row r="9" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
       <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1963,12 +1966,12 @@
       <c r="E9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+    <row r="10" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A10" s="62"/>
       <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
@@ -1978,12 +1981,12 @@
       <c r="E10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+    <row r="11" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
       <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
@@ -1997,8 +2000,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+    <row r="12" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
       <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
@@ -2012,8 +2015,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+    <row r="13" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
       <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
@@ -2027,8 +2030,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+    <row r="14" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
       <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
@@ -2042,8 +2045,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+    <row r="15" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
       <c r="B15" s="18" t="s">
         <v>14</v>
       </c>
@@ -2053,12 +2056,12 @@
       <c r="E15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:190" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+    <row r="16" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
       <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
@@ -2068,12 +2071,12 @@
       <c r="E16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
       <c r="B17" s="18" t="s">
         <v>14</v>
       </c>
@@ -2083,12 +2086,12 @@
       <c r="E17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="61" t="s">
+      <c r="H17" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
       <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
@@ -2098,12 +2101,12 @@
       <c r="E18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
       <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
@@ -2113,7 +2116,7 @@
       <c r="E19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2178,7 +2181,7 @@
       <c r="BG20" s="39"/>
     </row>
     <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="62" t="s">
         <v>101</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -2193,12 +2196,12 @@
       <c r="E21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="18" t="s">
         <v>12</v>
       </c>
@@ -2211,13 +2214,13 @@
       <c r="E22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="63"/>
+      <c r="G22" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
@@ -2227,7 +2230,7 @@
       <c r="E23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2292,7 +2295,7 @@
       <c r="BG24" s="39"/>
     </row>
     <row r="25" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="62" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -2307,12 +2310,12 @@
       <c r="E25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
@@ -2325,12 +2328,12 @@
       <c r="E26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="18" t="s">
         <v>14</v>
       </c>
@@ -2340,7 +2343,7 @@
       <c r="E27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2405,7 +2408,7 @@
       <c r="BG28" s="39"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="65" t="s">
         <v>99</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -2421,12 +2424,12 @@
         <v>33</v>
       </c>
       <c r="H29" s="16"/>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="18" t="s">
         <v>12</v>
       </c>
@@ -2439,12 +2442,12 @@
       <c r="E30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="18" t="s">
         <v>14</v>
       </c>
@@ -2454,7 +2457,7 @@
       <c r="E31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2519,7 +2522,7 @@
       <c r="BG32" s="39"/>
     </row>
     <row r="33" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="62" t="s">
         <v>98</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -2535,12 +2538,12 @@
         <v>36</v>
       </c>
       <c r="H33" s="16"/>
-      <c r="K33" s="31" t="s">
+      <c r="K33" s="64" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="18" t="s">
         <v>12</v>
       </c>
@@ -2558,7 +2561,7 @@
       </c>
     </row>
     <row r="35" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="18" t="s">
         <v>12</v>
       </c>
@@ -2573,7 +2576,7 @@
       </c>
     </row>
     <row r="36" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="18" t="s">
         <v>14</v>
       </c>
@@ -2588,7 +2591,7 @@
       </c>
     </row>
     <row r="37" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="18" t="s">
         <v>13</v>
       </c>
@@ -2663,7 +2666,7 @@
       <c r="BG38" s="39"/>
     </row>
     <row r="39" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="56" t="s">
         <v>95</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -2824,7 +2827,7 @@
       </c>
     </row>
     <row r="40" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="18" t="s">
         <v>12</v>
       </c>
@@ -2983,7 +2986,7 @@
       </c>
     </row>
     <row r="41" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="18" t="s">
         <v>12</v>
       </c>
@@ -3197,7 +3200,7 @@
       <c r="DD41" s="7"/>
     </row>
     <row r="42" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="18" t="s">
         <v>112</v>
       </c>
@@ -3405,7 +3408,7 @@
       <c r="DD42" s="7"/>
     </row>
     <row r="43" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="18" t="s">
         <v>13</v>
       </c>
@@ -3504,7 +3507,7 @@
       </c>
     </row>
     <row r="44" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="18" t="s">
         <v>12</v>
       </c>
@@ -3706,7 +3709,7 @@
       <c r="DD44" s="7"/>
     </row>
     <row r="45" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="18" t="s">
         <v>13</v>
       </c>
@@ -3830,7 +3833,7 @@
       <c r="DD45" s="7"/>
     </row>
     <row r="46" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="18" t="s">
         <v>13</v>
       </c>
@@ -3962,7 +3965,7 @@
       <c r="DD46" s="7"/>
     </row>
     <row r="47" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="18" t="s">
         <v>13</v>
       </c>
@@ -4090,7 +4093,7 @@
       <c r="DD47" s="7"/>
     </row>
     <row r="48" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="18" t="s">
         <v>112</v>
       </c>
@@ -4216,7 +4219,7 @@
       <c r="DD48" s="7"/>
     </row>
     <row r="49" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="18" t="s">
         <v>13</v>
       </c>
@@ -4342,7 +4345,7 @@
       <c r="DD49" s="7"/>
     </row>
     <row r="50" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="18" t="s">
         <v>112</v>
       </c>
@@ -4390,7 +4393,7 @@
       </c>
     </row>
     <row r="51" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="18" t="s">
         <v>112</v>
       </c>
@@ -4518,7 +4521,7 @@
       <c r="DD51" s="7"/>
     </row>
     <row r="52" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="18" t="s">
         <v>112</v>
       </c>
@@ -4678,7 +4681,7 @@
       <c r="DD52" s="7"/>
     </row>
     <row r="53" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="18" t="s">
         <v>112</v>
       </c>
@@ -4832,7 +4835,7 @@
       <c r="DD53" s="7"/>
     </row>
     <row r="54" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="18" t="s">
         <v>112</v>
       </c>
@@ -5012,7 +5015,7 @@
       <c r="BG55" s="39"/>
     </row>
     <row r="56" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B56" s="18" t="s">
@@ -5053,7 +5056,7 @@
       </c>
     </row>
     <row r="57" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="18" t="s">
         <v>112</v>
       </c>
@@ -5074,7 +5077,7 @@
       </c>
     </row>
     <row r="58" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="18" t="s">
         <v>112</v>
       </c>
@@ -5194,7 +5197,7 @@
       <c r="DD58" s="7"/>
     </row>
     <row r="59" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="18" t="s">
         <v>112</v>
       </c>
@@ -5314,7 +5317,7 @@
       <c r="DD59" s="7"/>
     </row>
     <row r="60" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="18" t="s">
         <v>13</v>
       </c>
@@ -5345,7 +5348,7 @@
       <c r="Y60" s="24"/>
     </row>
     <row r="61" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="18" t="s">
         <v>112</v>
       </c>
@@ -5463,7 +5466,7 @@
       <c r="DD61" s="7"/>
     </row>
     <row r="62" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="18" t="s">
         <v>112</v>
       </c>
@@ -5581,7 +5584,7 @@
       <c r="DD62" s="7"/>
     </row>
     <row r="63" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="18" t="s">
         <v>13</v>
       </c>
@@ -5599,7 +5602,7 @@
       </c>
     </row>
     <row r="64" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="18" t="s">
         <v>13</v>
       </c>
@@ -5717,7 +5720,7 @@
       <c r="DD64" s="7"/>
     </row>
     <row r="65" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="18" t="s">
         <v>13</v>
       </c>
@@ -5835,7 +5838,7 @@
       <c r="DD65" s="7"/>
     </row>
     <row r="66" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="18" t="s">
         <v>13</v>
       </c>
@@ -5953,7 +5956,7 @@
       <c r="DD66" s="7"/>
     </row>
     <row r="67" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="18" t="s">
         <v>13</v>
       </c>
@@ -6071,7 +6074,7 @@
       <c r="DD67" s="7"/>
     </row>
     <row r="68" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="18" t="s">
         <v>12</v>
       </c>
@@ -6193,7 +6196,7 @@
       <c r="DD68" s="7"/>
     </row>
     <row r="69" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="18" t="s">
         <v>12</v>
       </c>
@@ -6274,7 +6277,7 @@
       <c r="BG70" s="39"/>
     </row>
     <row r="71" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="52" t="s">
+      <c r="A71" s="56" t="s">
         <v>130</v>
       </c>
       <c r="B71" s="18" t="s">
@@ -6430,7 +6433,7 @@
       <c r="DD71" s="7"/>
     </row>
     <row r="72" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="18" t="s">
         <v>14</v>
       </c>
@@ -6548,7 +6551,7 @@
       <c r="DD72" s="7"/>
     </row>
     <row r="73" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="52"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="18" t="s">
         <v>14</v>
       </c>
@@ -6672,7 +6675,7 @@
       <c r="DD73" s="7"/>
     </row>
     <row r="74" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="18" t="s">
         <v>14</v>
       </c>
@@ -6790,7 +6793,7 @@
       <c r="DD74" s="7"/>
     </row>
     <row r="75" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="18" t="s">
         <v>14</v>
       </c>
@@ -6908,7 +6911,7 @@
       <c r="DD75" s="7"/>
     </row>
     <row r="76" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="18" t="s">
         <v>13</v>
       </c>
@@ -7026,7 +7029,7 @@
       <c r="DD76" s="7"/>
     </row>
     <row r="77" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="18" t="s">
         <v>13</v>
       </c>
@@ -7144,7 +7147,7 @@
       <c r="DD77" s="7"/>
     </row>
     <row r="78" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="52"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="18" t="s">
         <v>13</v>
       </c>
@@ -7262,7 +7265,7 @@
       <c r="DD78" s="7"/>
     </row>
     <row r="79" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="52"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="18" t="s">
         <v>14</v>
       </c>
@@ -7398,7 +7401,7 @@
       <c r="DD79" s="7"/>
     </row>
     <row r="80" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="52"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
@@ -7520,7 +7523,7 @@
       <c r="DD80" s="7"/>
     </row>
     <row r="81" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="52"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="18" t="s">
         <v>13</v>
       </c>
@@ -7642,7 +7645,7 @@
       <c r="DD81" s="7"/>
     </row>
     <row r="82" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="18" t="s">
         <v>14</v>
       </c>
@@ -7762,7 +7765,7 @@
       <c r="DD82" s="7"/>
     </row>
     <row r="83" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="18" t="s">
         <v>14</v>
       </c>
@@ -7940,7 +7943,7 @@
       <c r="BG84" s="39"/>
     </row>
     <row r="85" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="56" t="s">
         <v>146</v>
       </c>
       <c r="B85" s="18" t="s">
@@ -8082,7 +8085,7 @@
       <c r="DD85" s="7"/>
     </row>
     <row r="86" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="52"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="18" t="s">
         <v>112</v>
       </c>
@@ -8200,7 +8203,7 @@
       <c r="DD86" s="7"/>
     </row>
     <row r="87" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="52"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="18" t="s">
         <v>13</v>
       </c>
@@ -8330,7 +8333,7 @@
       <c r="DD87" s="7"/>
     </row>
     <row r="88" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="52"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="18" t="s">
         <v>13</v>
       </c>
@@ -8458,7 +8461,7 @@
       <c r="DD88" s="7"/>
     </row>
     <row r="89" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="18" t="s">
         <v>112</v>
       </c>
@@ -8576,7 +8579,7 @@
       <c r="DD89" s="7"/>
     </row>
     <row r="90" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="52"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="18" t="s">
         <v>13</v>
       </c>
@@ -8694,7 +8697,7 @@
       <c r="DD90" s="7"/>
     </row>
     <row r="91" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="52"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="18" t="s">
         <v>112</v>
       </c>
@@ -8812,7 +8815,7 @@
       <c r="DD91" s="7"/>
     </row>
     <row r="92" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="52"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="18" t="s">
         <v>13</v>
       </c>
@@ -8994,7 +8997,7 @@
       <c r="BG93" s="39"/>
     </row>
     <row r="94" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="52" t="s">
+      <c r="A94" s="56" t="s">
         <v>156</v>
       </c>
       <c r="B94" s="18" t="s">
@@ -9120,7 +9123,7 @@
       <c r="DD94" s="7"/>
     </row>
     <row r="95" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="52"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="18" t="s">
         <v>13</v>
       </c>
@@ -9240,7 +9243,7 @@
       <c r="DD95" s="7"/>
     </row>
     <row r="96" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="52"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="18" t="s">
         <v>112</v>
       </c>
@@ -9358,7 +9361,7 @@
       <c r="DD96" s="7"/>
     </row>
     <row r="97" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="18" t="s">
         <v>112</v>
       </c>
@@ -9476,7 +9479,7 @@
       <c r="DD97" s="7"/>
     </row>
     <row r="98" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="52"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="18" t="s">
         <v>13</v>
       </c>
@@ -9596,7 +9599,7 @@
       <c r="DD98" s="7"/>
     </row>
     <row r="99" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="52"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="18" t="s">
         <v>112</v>
       </c>
@@ -9714,7 +9717,7 @@
       <c r="DD99" s="7"/>
     </row>
     <row r="100" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="52"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="18" t="s">
         <v>112</v>
       </c>
@@ -9832,7 +9835,7 @@
       <c r="DD100" s="7"/>
     </row>
     <row r="101" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="52"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="18" t="s">
         <v>112</v>
       </c>
@@ -9950,7 +9953,7 @@
       <c r="DD101" s="7"/>
     </row>
     <row r="102" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="52"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="18" t="s">
         <v>13</v>
       </c>
@@ -10130,7 +10133,7 @@
       <c r="BG103" s="39"/>
     </row>
     <row r="104" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="52" t="s">
+      <c r="A104" s="56" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
@@ -10256,7 +10259,7 @@
       <c r="DD104" s="7"/>
     </row>
     <row r="105" spans="1:108" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="52"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="18" t="s">
         <v>112</v>
       </c>
@@ -10374,7 +10377,7 @@
       <c r="DD105" s="7"/>
     </row>
     <row r="106" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="52"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="18" t="s">
         <v>13</v>
       </c>
@@ -10492,7 +10495,7 @@
       <c r="DD106" s="7"/>
     </row>
     <row r="107" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="52"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="18" t="s">
         <v>13</v>
       </c>
@@ -10610,7 +10613,7 @@
       <c r="DD107" s="7"/>
     </row>
     <row r="108" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="52"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="18" t="s">
         <v>13</v>
       </c>
@@ -10728,7 +10731,7 @@
       <c r="DD108" s="7"/>
     </row>
     <row r="109" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="52"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="18" t="s">
         <v>13</v>
       </c>
@@ -10846,7 +10849,7 @@
       <c r="DD109" s="7"/>
     </row>
     <row r="110" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="52"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="18" t="s">
         <v>13</v>
       </c>
@@ -10964,7 +10967,7 @@
       <c r="DD110" s="7"/>
     </row>
     <row r="111" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="52"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="18" t="s">
         <v>13</v>
       </c>
@@ -11082,7 +11085,7 @@
       <c r="DD111" s="7"/>
     </row>
     <row r="112" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="52"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="18" t="s">
         <v>112</v>
       </c>
@@ -11200,7 +11203,7 @@
       <c r="DD112" s="7"/>
     </row>
     <row r="113" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="52"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="18" t="s">
         <v>13</v>
       </c>
@@ -11428,7 +11431,7 @@
       <c r="DD114" s="7"/>
     </row>
     <row r="115" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="52" t="s">
+      <c r="A115" s="56" t="s">
         <v>103</v>
       </c>
       <c r="B115" s="18" t="s">
@@ -11548,7 +11551,7 @@
       <c r="DD115" s="7"/>
     </row>
     <row r="116" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="52"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="18" t="s">
         <v>14</v>
       </c>
@@ -11664,7 +11667,7 @@
       <c r="DD116" s="7"/>
     </row>
     <row r="117" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="52"/>
+      <c r="A117" s="56"/>
       <c r="B117" s="18" t="s">
         <v>14</v>
       </c>
@@ -11780,7 +11783,7 @@
       <c r="DD117" s="7"/>
     </row>
     <row r="118" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="52"/>
+      <c r="A118" s="56"/>
       <c r="B118" s="18" t="s">
         <v>14</v>
       </c>
@@ -11896,7 +11899,7 @@
       <c r="DD118" s="7"/>
     </row>
     <row r="119" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="52"/>
+      <c r="A119" s="56"/>
       <c r="B119" s="18" t="s">
         <v>14</v>
       </c>
@@ -12072,7 +12075,7 @@
       <c r="BG120" s="39"/>
     </row>
     <row r="121" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A121" s="52" t="s">
+      <c r="A121" s="56" t="s">
         <v>103</v>
       </c>
       <c r="B121" s="18" t="s">
@@ -12233,7 +12236,7 @@
       </c>
     </row>
     <row r="122" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A122" s="52"/>
+      <c r="A122" s="56"/>
       <c r="B122" s="18" t="s">
         <v>14</v>
       </c>
@@ -12389,7 +12392,7 @@
       </c>
     </row>
     <row r="123" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A123" s="52"/>
+      <c r="A123" s="56"/>
       <c r="B123" s="18" t="s">
         <v>14</v>
       </c>
@@ -12545,7 +12548,7 @@
       </c>
     </row>
     <row r="124" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A124" s="52"/>
+      <c r="A124" s="56"/>
       <c r="B124" s="18" t="s">
         <v>14</v>
       </c>
@@ -12701,7 +12704,7 @@
       </c>
     </row>
     <row r="125" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A125" s="52"/>
+      <c r="A125" s="56"/>
       <c r="B125" s="18" t="s">
         <v>14</v>
       </c>
@@ -12918,11 +12921,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="A94:A102"/>
-    <mergeCell ref="A104:A113"/>
-    <mergeCell ref="A115:A119"/>
     <mergeCell ref="A71:A83"/>
     <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="F1:K1"/>
@@ -12938,6 +12936,11 @@
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="A39:A54"/>
     <mergeCell ref="A56:A69"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="A94:A102"/>
+    <mergeCell ref="A104:A113"/>
+    <mergeCell ref="A115:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Modelo BD.xlsx
+++ b/Modelo BD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCsito\Desktop\GrupLAC-Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\GrupLAC-Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EE2B36-8C83-4697-B1D2-DA945DC5907F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -567,7 +566,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -931,6 +930,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -957,12 +962,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,17 +1242,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
@@ -1321,72 +1320,72 @@
   <sheetData>
     <row r="1" spans="1:190" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="7"/>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="59" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="59" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="59" t="s">
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="57" t="s">
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="57" t="s">
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="BB1" s="63"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="57" t="s">
+      <c r="BB1" s="65"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="BE1" s="58"/>
+      <c r="BE1" s="60"/>
       <c r="BF1" s="35" t="s">
         <v>94</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:190" s="4" customFormat="1" ht="118.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:190" s="4" customFormat="1" ht="117.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1695,7 +1694,7 @@
       <c r="GH2" s="5"/>
     </row>
     <row r="3" spans="1:190" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -1899,7 +1898,7 @@
       <c r="GH3" s="2"/>
     </row>
     <row r="4" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +1913,7 @@
       </c>
     </row>
     <row r="5" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
@@ -1929,7 +1928,7 @@
       </c>
     </row>
     <row r="6" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
@@ -1944,7 +1943,7 @@
       </c>
     </row>
     <row r="7" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
@@ -1959,7 +1958,7 @@
       </c>
     </row>
     <row r="8" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
@@ -1975,7 +1974,7 @@
       <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="18" t="s">
         <v>112</v>
       </c>
@@ -1990,7 +1989,7 @@
       </c>
     </row>
     <row r="10" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
@@ -2005,7 +2004,7 @@
       </c>
     </row>
     <row r="11" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="18" t="s">
         <v>112</v>
       </c>
@@ -2020,7 +2019,7 @@
       </c>
     </row>
     <row r="12" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="18" t="s">
         <v>112</v>
       </c>
@@ -2035,7 +2034,7 @@
       </c>
     </row>
     <row r="13" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="18" t="s">
         <v>112</v>
       </c>
@@ -2050,7 +2049,7 @@
       </c>
     </row>
     <row r="14" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="18" t="s">
         <v>112</v>
       </c>
@@ -2065,7 +2064,7 @@
       </c>
     </row>
     <row r="15" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="18" t="s">
         <v>112</v>
       </c>
@@ -2080,7 +2079,7 @@
       </c>
     </row>
     <row r="16" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="18" t="s">
         <v>112</v>
       </c>
@@ -2095,7 +2094,7 @@
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="18" t="s">
         <v>112</v>
       </c>
@@ -2110,7 +2109,7 @@
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="18" t="s">
         <v>112</v>
       </c>
@@ -2125,7 +2124,7 @@
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="18" t="s">
         <v>112</v>
       </c>
@@ -2200,7 +2199,7 @@
       <c r="BG20" s="39"/>
     </row>
     <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="64" t="s">
         <v>101</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -2220,7 +2219,7 @@
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="18" t="s">
         <v>12</v>
       </c>
@@ -2239,7 +2238,7 @@
       <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="18" t="s">
         <v>112</v>
       </c>
@@ -2314,7 +2313,7 @@
       <c r="BG24" s="39"/>
     </row>
     <row r="25" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="64" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -2334,7 +2333,7 @@
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
@@ -2352,7 +2351,7 @@
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="18" t="s">
         <v>112</v>
       </c>
@@ -2427,7 +2426,7 @@
       <c r="BG28" s="39"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="66" t="s">
         <v>99</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -2448,7 +2447,7 @@
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="18" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +2465,7 @@
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="18" t="s">
         <v>112</v>
       </c>
@@ -2541,7 +2540,7 @@
       <c r="BG32" s="39"/>
     </row>
     <row r="33" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="64" t="s">
         <v>98</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -2557,12 +2556,12 @@
         <v>36</v>
       </c>
       <c r="H33" s="16"/>
-      <c r="K33" s="65" t="s">
+      <c r="K33" s="56" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="18" t="s">
         <v>12</v>
       </c>
@@ -2575,12 +2574,12 @@
       <c r="E34" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="66" t="s">
+      <c r="K34" s="57" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="18" t="s">
         <v>12</v>
       </c>
@@ -2590,12 +2589,12 @@
       <c r="E35" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K35" s="66" t="s">
+      <c r="K35" s="57" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="18" t="s">
         <v>112</v>
       </c>
@@ -2605,12 +2604,12 @@
       <c r="E36" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="66" t="s">
+      <c r="K36" s="57" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="18" t="s">
         <v>13</v>
       </c>
@@ -2626,7 +2625,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="15"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="66" t="s">
+      <c r="K37" s="57" t="s">
         <v>18</v>
       </c>
       <c r="L37" s="30"/>
@@ -2728,7 +2727,7 @@
       <c r="DD37" s="7"/>
     </row>
     <row r="38" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="18" t="s">
         <v>13</v>
       </c>
@@ -2744,7 +2743,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="15"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="57" t="s">
         <v>18</v>
       </c>
       <c r="L38" s="30"/>
@@ -2846,7 +2845,7 @@
       <c r="DD38" s="7"/>
     </row>
     <row r="39" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="18" t="s">
         <v>12</v>
       </c>
@@ -2862,7 +2861,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="15"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="66" t="s">
+      <c r="K39" s="57" t="s">
         <v>18</v>
       </c>
       <c r="L39" s="30"/>
@@ -2964,7 +2963,7 @@
       <c r="DD39" s="7"/>
     </row>
     <row r="40" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="18" t="s">
         <v>13</v>
       </c>
@@ -2980,7 +2979,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="15"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="66" t="s">
+      <c r="K40" s="57" t="s">
         <v>18</v>
       </c>
       <c r="L40" s="30"/>
@@ -3082,7 +3081,7 @@
       <c r="DD40" s="7"/>
     </row>
     <row r="41" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="18" t="s">
         <v>13</v>
       </c>
@@ -3098,7 +3097,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="15"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="66" t="s">
+      <c r="K41" s="57" t="s">
         <v>18</v>
       </c>
       <c r="L41" s="30"/>
@@ -3200,7 +3199,7 @@
       <c r="DD41" s="7"/>
     </row>
     <row r="42" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="18" t="s">
         <v>13</v>
       </c>
@@ -3216,7 +3215,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="15"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="66" t="s">
+      <c r="K42" s="57" t="s">
         <v>18</v>
       </c>
       <c r="L42" s="30"/>
@@ -3378,7 +3377,7 @@
       <c r="BG43" s="39"/>
     </row>
     <row r="44" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -3393,7 +3392,7 @@
       <c r="E44" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="30" t="s">
+      <c r="L44" s="52" t="s">
         <v>18</v>
       </c>
       <c r="M44" s="15" t="s">
@@ -3539,7 +3538,7 @@
       </c>
     </row>
     <row r="45" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="18" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3697,7 @@
       </c>
     </row>
     <row r="46" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="18" t="s">
         <v>12</v>
       </c>
@@ -3912,7 +3911,7 @@
       <c r="DD46" s="7"/>
     </row>
     <row r="47" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="18" t="s">
         <v>112</v>
       </c>
@@ -4120,7 +4119,7 @@
       <c r="DD47" s="7"/>
     </row>
     <row r="48" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="18" t="s">
         <v>13</v>
       </c>
@@ -4219,7 +4218,7 @@
       </c>
     </row>
     <row r="49" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="18" t="s">
         <v>12</v>
       </c>
@@ -4421,7 +4420,7 @@
       <c r="DD49" s="7"/>
     </row>
     <row r="50" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="18" t="s">
         <v>13</v>
       </c>
@@ -4545,7 +4544,7 @@
       <c r="DD50" s="7"/>
     </row>
     <row r="51" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="18" t="s">
         <v>13</v>
       </c>
@@ -4677,7 +4676,7 @@
       <c r="DD51" s="7"/>
     </row>
     <row r="52" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="18" t="s">
         <v>13</v>
       </c>
@@ -4805,7 +4804,7 @@
       <c r="DD52" s="7"/>
     </row>
     <row r="53" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="18" t="s">
         <v>112</v>
       </c>
@@ -4931,7 +4930,7 @@
       <c r="DD53" s="7"/>
     </row>
     <row r="54" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="18" t="s">
         <v>13</v>
       </c>
@@ -5057,7 +5056,7 @@
       <c r="DD54" s="7"/>
     </row>
     <row r="55" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="18" t="s">
         <v>112</v>
       </c>
@@ -5105,7 +5104,7 @@
       </c>
     </row>
     <row r="56" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="18" t="s">
         <v>112</v>
       </c>
@@ -5233,7 +5232,7 @@
       <c r="DD56" s="7"/>
     </row>
     <row r="57" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="18" t="s">
         <v>112</v>
       </c>
@@ -5393,7 +5392,7 @@
       <c r="DD57" s="7"/>
     </row>
     <row r="58" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="18" t="s">
         <v>112</v>
       </c>
@@ -5547,7 +5546,7 @@
       <c r="DD58" s="7"/>
     </row>
     <row r="59" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="18" t="s">
         <v>112</v>
       </c>
@@ -5727,7 +5726,7 @@
       <c r="BG60" s="39"/>
     </row>
     <row r="61" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="58" t="s">
         <v>97</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -5768,7 +5767,7 @@
       </c>
     </row>
     <row r="62" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="18" t="s">
         <v>112</v>
       </c>
@@ -5789,7 +5788,7 @@
       </c>
     </row>
     <row r="63" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="18" t="s">
         <v>112</v>
       </c>
@@ -5909,7 +5908,7 @@
       <c r="DD63" s="7"/>
     </row>
     <row r="64" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="18" t="s">
         <v>112</v>
       </c>
@@ -6029,7 +6028,7 @@
       <c r="DD64" s="7"/>
     </row>
     <row r="65" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="18" t="s">
         <v>13</v>
       </c>
@@ -6060,7 +6059,7 @@
       <c r="Y65" s="24"/>
     </row>
     <row r="66" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="18" t="s">
         <v>112</v>
       </c>
@@ -6178,7 +6177,7 @@
       <c r="DD66" s="7"/>
     </row>
     <row r="67" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="18" t="s">
         <v>112</v>
       </c>
@@ -6296,7 +6295,7 @@
       <c r="DD67" s="7"/>
     </row>
     <row r="68" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="18" t="s">
         <v>13</v>
       </c>
@@ -6314,7 +6313,7 @@
       </c>
     </row>
     <row r="69" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="18" t="s">
         <v>13</v>
       </c>
@@ -6432,7 +6431,7 @@
       <c r="DD69" s="7"/>
     </row>
     <row r="70" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="18" t="s">
         <v>13</v>
       </c>
@@ -6550,7 +6549,7 @@
       <c r="DD70" s="7"/>
     </row>
     <row r="71" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="18" t="s">
         <v>13</v>
       </c>
@@ -6668,7 +6667,7 @@
       <c r="DD71" s="7"/>
     </row>
     <row r="72" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="18" t="s">
         <v>13</v>
       </c>
@@ -6786,7 +6785,7 @@
       <c r="DD72" s="7"/>
     </row>
     <row r="73" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="18" t="s">
         <v>12</v>
       </c>
@@ -6908,7 +6907,7 @@
       <c r="DD73" s="7"/>
     </row>
     <row r="74" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="18" t="s">
         <v>12</v>
       </c>
@@ -6989,7 +6988,7 @@
       <c r="BG75" s="39"/>
     </row>
     <row r="76" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="58" t="s">
         <v>130</v>
       </c>
       <c r="B76" s="18" t="s">
@@ -7145,7 +7144,7 @@
       <c r="DD76" s="7"/>
     </row>
     <row r="77" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="18" t="s">
         <v>14</v>
       </c>
@@ -7263,7 +7262,7 @@
       <c r="DD77" s="7"/>
     </row>
     <row r="78" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="18" t="s">
         <v>14</v>
       </c>
@@ -7387,7 +7386,7 @@
       <c r="DD78" s="7"/>
     </row>
     <row r="79" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="18" t="s">
         <v>14</v>
       </c>
@@ -7505,7 +7504,7 @@
       <c r="DD79" s="7"/>
     </row>
     <row r="80" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
@@ -7623,7 +7622,7 @@
       <c r="DD80" s="7"/>
     </row>
     <row r="81" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="18" t="s">
         <v>13</v>
       </c>
@@ -7741,7 +7740,7 @@
       <c r="DD81" s="7"/>
     </row>
     <row r="82" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="18" t="s">
         <v>13</v>
       </c>
@@ -7859,7 +7858,7 @@
       <c r="DD82" s="7"/>
     </row>
     <row r="83" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="18" t="s">
         <v>13</v>
       </c>
@@ -7977,7 +7976,7 @@
       <c r="DD83" s="7"/>
     </row>
     <row r="84" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="18" t="s">
         <v>14</v>
       </c>
@@ -8113,7 +8112,7 @@
       <c r="DD84" s="7"/>
     </row>
     <row r="85" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="18" t="s">
         <v>14</v>
       </c>
@@ -8235,7 +8234,7 @@
       <c r="DD85" s="7"/>
     </row>
     <row r="86" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="18" t="s">
         <v>13</v>
       </c>
@@ -8357,7 +8356,7 @@
       <c r="DD86" s="7"/>
     </row>
     <row r="87" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="18" t="s">
         <v>14</v>
       </c>
@@ -8477,7 +8476,7 @@
       <c r="DD87" s="7"/>
     </row>
     <row r="88" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="18" t="s">
         <v>14</v>
       </c>
@@ -8655,7 +8654,7 @@
       <c r="BG89" s="39"/>
     </row>
     <row r="90" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="56" t="s">
+      <c r="A90" s="58" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="18" t="s">
@@ -8797,7 +8796,7 @@
       <c r="DD90" s="7"/>
     </row>
     <row r="91" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="18" t="s">
         <v>112</v>
       </c>
@@ -8915,7 +8914,7 @@
       <c r="DD91" s="7"/>
     </row>
     <row r="92" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="18" t="s">
         <v>13</v>
       </c>
@@ -9045,7 +9044,7 @@
       <c r="DD92" s="7"/>
     </row>
     <row r="93" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="18" t="s">
         <v>13</v>
       </c>
@@ -9173,7 +9172,7 @@
       <c r="DD93" s="7"/>
     </row>
     <row r="94" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="18" t="s">
         <v>112</v>
       </c>
@@ -9291,7 +9290,7 @@
       <c r="DD94" s="7"/>
     </row>
     <row r="95" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="18" t="s">
         <v>13</v>
       </c>
@@ -9409,7 +9408,7 @@
       <c r="DD95" s="7"/>
     </row>
     <row r="96" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="18" t="s">
         <v>112</v>
       </c>
@@ -9527,7 +9526,7 @@
       <c r="DD96" s="7"/>
     </row>
     <row r="97" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="18" t="s">
         <v>13</v>
       </c>
@@ -9709,7 +9708,7 @@
       <c r="BG98" s="39"/>
     </row>
     <row r="99" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="56" t="s">
+      <c r="A99" s="58" t="s">
         <v>156</v>
       </c>
       <c r="B99" s="18" t="s">
@@ -9835,7 +9834,7 @@
       <c r="DD99" s="7"/>
     </row>
     <row r="100" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="18" t="s">
         <v>13</v>
       </c>
@@ -9955,7 +9954,7 @@
       <c r="DD100" s="7"/>
     </row>
     <row r="101" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="18" t="s">
         <v>112</v>
       </c>
@@ -10073,7 +10072,7 @@
       <c r="DD101" s="7"/>
     </row>
     <row r="102" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="18" t="s">
         <v>112</v>
       </c>
@@ -10191,7 +10190,7 @@
       <c r="DD102" s="7"/>
     </row>
     <row r="103" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="18" t="s">
         <v>13</v>
       </c>
@@ -10311,7 +10310,7 @@
       <c r="DD103" s="7"/>
     </row>
     <row r="104" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="18" t="s">
         <v>112</v>
       </c>
@@ -10429,7 +10428,7 @@
       <c r="DD104" s="7"/>
     </row>
     <row r="105" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="18" t="s">
         <v>112</v>
       </c>
@@ -10547,7 +10546,7 @@
       <c r="DD105" s="7"/>
     </row>
     <row r="106" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="18" t="s">
         <v>112</v>
       </c>
@@ -10665,7 +10664,7 @@
       <c r="DD106" s="7"/>
     </row>
     <row r="107" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="18" t="s">
         <v>13</v>
       </c>
@@ -10845,7 +10844,7 @@
       <c r="BG108" s="39"/>
     </row>
     <row r="109" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="56" t="s">
+      <c r="A109" s="58" t="s">
         <v>103</v>
       </c>
       <c r="B109" s="18" t="s">
@@ -10971,7 +10970,7 @@
       <c r="DD109" s="7"/>
     </row>
     <row r="110" spans="1:108" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="18" t="s">
         <v>112</v>
       </c>
@@ -11089,7 +11088,7 @@
       <c r="DD110" s="7"/>
     </row>
     <row r="111" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="56"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="18" t="s">
         <v>13</v>
       </c>
@@ -11207,7 +11206,7 @@
       <c r="DD111" s="7"/>
     </row>
     <row r="112" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="18" t="s">
         <v>13</v>
       </c>
@@ -11325,7 +11324,7 @@
       <c r="DD112" s="7"/>
     </row>
     <row r="113" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="18" t="s">
         <v>13</v>
       </c>
@@ -11443,7 +11442,7 @@
       <c r="DD113" s="7"/>
     </row>
     <row r="114" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="18" t="s">
         <v>13</v>
       </c>
@@ -11561,7 +11560,7 @@
       <c r="DD114" s="7"/>
     </row>
     <row r="115" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="56"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="18" t="s">
         <v>13</v>
       </c>
@@ -11679,7 +11678,7 @@
       <c r="DD115" s="7"/>
     </row>
     <row r="116" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="56"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="18" t="s">
         <v>13</v>
       </c>
@@ -11797,7 +11796,7 @@
       <c r="DD116" s="7"/>
     </row>
     <row r="117" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="56"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="18" t="s">
         <v>112</v>
       </c>
@@ -11915,7 +11914,7 @@
       <c r="DD117" s="7"/>
     </row>
     <row r="118" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
+      <c r="A118" s="58"/>
       <c r="B118" s="18" t="s">
         <v>13</v>
       </c>
@@ -12143,7 +12142,7 @@
       <c r="DD119" s="7"/>
     </row>
     <row r="120" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="56" t="s">
+      <c r="A120" s="58" t="s">
         <v>103</v>
       </c>
       <c r="B120" s="18" t="s">
@@ -12263,7 +12262,7 @@
       <c r="DD120" s="7"/>
     </row>
     <row r="121" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="56"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="18" t="s">
         <v>14</v>
       </c>
@@ -12379,7 +12378,7 @@
       <c r="DD121" s="7"/>
     </row>
     <row r="122" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="18" t="s">
         <v>14</v>
       </c>
@@ -12495,7 +12494,7 @@
       <c r="DD122" s="7"/>
     </row>
     <row r="123" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="56"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="18" t="s">
         <v>14</v>
       </c>
@@ -12611,7 +12610,7 @@
       <c r="DD123" s="7"/>
     </row>
     <row r="124" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="56"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="18" t="s">
         <v>14</v>
       </c>
@@ -12787,7 +12786,7 @@
       <c r="BG125" s="39"/>
     </row>
     <row r="126" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A126" s="56" t="s">
+      <c r="A126" s="58" t="s">
         <v>103</v>
       </c>
       <c r="B126" s="18" t="s">
@@ -12948,7 +12947,7 @@
       </c>
     </row>
     <row r="127" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A127" s="56"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="18" t="s">
         <v>14</v>
       </c>
@@ -13104,7 +13103,7 @@
       </c>
     </row>
     <row r="128" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="18" t="s">
         <v>14</v>
       </c>
@@ -13260,7 +13259,7 @@
       </c>
     </row>
     <row r="129" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A129" s="56"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="18" t="s">
         <v>14</v>
       </c>
@@ -13416,7 +13415,7 @@
       </c>
     </row>
     <row r="130" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A130" s="56"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="18" t="s">
         <v>14</v>
       </c>
@@ -13633,11 +13632,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="A120:A124"/>
     <mergeCell ref="A76:A88"/>
     <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="F1:K1"/>
@@ -13653,6 +13647,11 @@
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="A44:A59"/>
     <mergeCell ref="A61:A74"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="A120:A124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Modelo BD.xlsx
+++ b/Modelo BD.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="179">
   <si>
     <t>Año Formación</t>
   </si>
@@ -771,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,6 +962,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,10 +1249,10 @@
   <dimension ref="A1:GH131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3398,7 +3401,7 @@
       <c r="M44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N44" s="12" t="s">
+      <c r="N44" s="67" t="s">
         <v>18</v>
       </c>
       <c r="O44" s="15" t="s">
@@ -3551,7 +3554,7 @@
       <c r="E45" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="30" t="s">
+      <c r="L45" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M45" s="15" t="s">
@@ -3716,7 +3719,7 @@
       <c r="I46" s="15"/>
       <c r="J46" s="12"/>
       <c r="K46" s="31"/>
-      <c r="L46" s="30" t="s">
+      <c r="L46" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M46" s="15" t="s">
@@ -3928,7 +3931,7 @@
       <c r="I47" s="15"/>
       <c r="J47" s="12"/>
       <c r="K47" s="31"/>
-      <c r="L47" s="30" t="s">
+      <c r="L47" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M47" s="15" t="s">
@@ -4129,7 +4132,7 @@
       <c r="E48" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L48" s="30" t="s">
+      <c r="L48" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M48" s="15" t="s">
@@ -4235,7 +4238,9 @@
       <c r="I49" s="15"/>
       <c r="J49" s="12"/>
       <c r="K49" s="31"/>
-      <c r="L49" s="30"/>
+      <c r="L49" s="51" t="s">
+        <v>18</v>
+      </c>
       <c r="M49" s="15" t="s">
         <v>18</v>
       </c>
@@ -4561,7 +4566,7 @@
       <c r="I51" s="15"/>
       <c r="J51" s="12"/>
       <c r="K51" s="31"/>
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M51" s="15"/>
@@ -4693,7 +4698,7 @@
       <c r="I52" s="15"/>
       <c r="J52" s="12"/>
       <c r="K52" s="31"/>
-      <c r="L52" s="30" t="s">
+      <c r="L52" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M52" s="15" t="s">
@@ -5741,7 +5746,7 @@
       <c r="E61" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L61" s="30" t="s">
+      <c r="L61" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M61" s="15" t="s">
@@ -5777,7 +5782,7 @@
       <c r="E62" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="L62" s="30" t="s">
+      <c r="L62" s="51" t="s">
         <v>18</v>
       </c>
       <c r="Q62" s="15" t="s">
@@ -6038,7 +6043,7 @@
       <c r="E65" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L65" s="30" t="s">
+      <c r="L65" s="52" t="s">
         <v>18</v>
       </c>
       <c r="M65" s="15" t="s">
@@ -6305,7 +6310,7 @@
       <c r="E68" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="L68" s="30" t="s">
+      <c r="L68" s="51" t="s">
         <v>18</v>
       </c>
       <c r="Q68" s="15" t="s">
@@ -6802,7 +6807,7 @@
       <c r="I73" s="15"/>
       <c r="J73" s="12"/>
       <c r="K73" s="31"/>
-      <c r="L73" s="30" t="s">
+      <c r="L73" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M73" s="15"/>
@@ -6917,7 +6922,7 @@
       <c r="E74" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L74" s="30" t="s">
+      <c r="L74" s="51" t="s">
         <v>18</v>
       </c>
       <c r="N74" s="12" t="s">
@@ -12801,7 +12806,7 @@
       <c r="E126" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="L126" s="30" t="s">
+      <c r="L126" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M126" s="15" t="s">
@@ -12957,7 +12962,7 @@
       <c r="E127" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="L127" s="30" t="s">
+      <c r="L127" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M127" s="15" t="s">
@@ -13113,7 +13118,7 @@
       <c r="E128" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="L128" s="30" t="s">
+      <c r="L128" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M128" s="15" t="s">
@@ -13269,7 +13274,7 @@
       <c r="E129" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="L129" s="30" t="s">
+      <c r="L129" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M129" s="15" t="s">
@@ -13425,7 +13430,7 @@
       <c r="E130" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="L130" s="30" t="s">
+      <c r="L130" s="51" t="s">
         <v>18</v>
       </c>
       <c r="M130" s="15" t="s">
@@ -13632,6 +13637,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="A120:A124"/>
     <mergeCell ref="A76:A88"/>
     <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="F1:K1"/>
@@ -13647,11 +13657,6 @@
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="A44:A59"/>
     <mergeCell ref="A61:A74"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="A120:A124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Modelo BD.xlsx
+++ b/Modelo BD.xlsx
@@ -771,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -936,6 +936,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -963,7 +966,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1252,7 +1255,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
+      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,72 +1326,72 @@
   <sheetData>
     <row r="1" spans="1:190" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="7"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="61" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="61" t="s">
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="61" t="s">
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="59" t="s">
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="59" t="s">
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="59" t="s">
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="BE1" s="60"/>
+      <c r="BE1" s="61"/>
       <c r="BF1" s="35" t="s">
         <v>94</v>
       </c>
@@ -1697,7 +1700,7 @@
       <c r="GH2" s="5"/>
     </row>
     <row r="3" spans="1:190" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -1901,7 +1904,7 @@
       <c r="GH3" s="2"/>
     </row>
     <row r="4" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1919,7 @@
       </c>
     </row>
     <row r="5" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
@@ -1931,7 +1934,7 @@
       </c>
     </row>
     <row r="6" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
@@ -1946,7 +1949,7 @@
       </c>
     </row>
     <row r="7" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
@@ -1961,7 +1964,7 @@
       </c>
     </row>
     <row r="8" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
@@ -1977,7 +1980,7 @@
       <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="18" t="s">
         <v>112</v>
       </c>
@@ -1992,7 +1995,7 @@
       </c>
     </row>
     <row r="10" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
@@ -2007,7 +2010,7 @@
       </c>
     </row>
     <row r="11" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="18" t="s">
         <v>112</v>
       </c>
@@ -2022,7 +2025,7 @@
       </c>
     </row>
     <row r="12" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="18" t="s">
         <v>112</v>
       </c>
@@ -2037,7 +2040,7 @@
       </c>
     </row>
     <row r="13" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="18" t="s">
         <v>112</v>
       </c>
@@ -2052,7 +2055,7 @@
       </c>
     </row>
     <row r="14" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="18" t="s">
         <v>112</v>
       </c>
@@ -2067,7 +2070,7 @@
       </c>
     </row>
     <row r="15" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="18" t="s">
         <v>112</v>
       </c>
@@ -2082,7 +2085,7 @@
       </c>
     </row>
     <row r="16" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="18" t="s">
         <v>112</v>
       </c>
@@ -2097,7 +2100,7 @@
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="18" t="s">
         <v>112</v>
       </c>
@@ -2112,7 +2115,7 @@
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="18" t="s">
         <v>112</v>
       </c>
@@ -2127,7 +2130,7 @@
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="18" t="s">
         <v>112</v>
       </c>
@@ -2202,7 +2205,7 @@
       <c r="BG20" s="39"/>
     </row>
     <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="65" t="s">
         <v>101</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -2222,7 +2225,7 @@
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="18" t="s">
         <v>12</v>
       </c>
@@ -2241,7 +2244,7 @@
       <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="18" t="s">
         <v>112</v>
       </c>
@@ -2316,7 +2319,7 @@
       <c r="BG24" s="39"/>
     </row>
     <row r="25" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="65" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -2336,7 +2339,7 @@
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
@@ -2354,7 +2357,7 @@
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="18" t="s">
         <v>112</v>
       </c>
@@ -2429,7 +2432,7 @@
       <c r="BG28" s="39"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="67" t="s">
         <v>99</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -2450,7 +2453,7 @@
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="18" t="s">
         <v>12</v>
       </c>
@@ -2468,7 +2471,7 @@
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="18" t="s">
         <v>112</v>
       </c>
@@ -2543,7 +2546,7 @@
       <c r="BG32" s="39"/>
     </row>
     <row r="33" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="65" t="s">
         <v>98</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -2564,7 +2567,7 @@
       </c>
     </row>
     <row r="34" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="18" t="s">
         <v>12</v>
       </c>
@@ -2582,7 +2585,7 @@
       </c>
     </row>
     <row r="35" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="18" t="s">
         <v>12</v>
       </c>
@@ -2597,7 +2600,7 @@
       </c>
     </row>
     <row r="36" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="18" t="s">
         <v>112</v>
       </c>
@@ -2612,7 +2615,7 @@
       </c>
     </row>
     <row r="37" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="18" t="s">
         <v>13</v>
       </c>
@@ -2730,7 +2733,7 @@
       <c r="DD37" s="7"/>
     </row>
     <row r="38" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="18" t="s">
         <v>13</v>
       </c>
@@ -2848,7 +2851,7 @@
       <c r="DD38" s="7"/>
     </row>
     <row r="39" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="18" t="s">
         <v>12</v>
       </c>
@@ -2966,7 +2969,7 @@
       <c r="DD39" s="7"/>
     </row>
     <row r="40" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="18" t="s">
         <v>13</v>
       </c>
@@ -3084,7 +3087,7 @@
       <c r="DD40" s="7"/>
     </row>
     <row r="41" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="18" t="s">
         <v>13</v>
       </c>
@@ -3202,7 +3205,7 @@
       <c r="DD41" s="7"/>
     </row>
     <row r="42" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="18" t="s">
         <v>13</v>
       </c>
@@ -3380,7 +3383,7 @@
       <c r="BG43" s="39"/>
     </row>
     <row r="44" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="59" t="s">
         <v>95</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -3401,7 +3404,7 @@
       <c r="M44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N44" s="67" t="s">
+      <c r="N44" s="58" t="s">
         <v>18</v>
       </c>
       <c r="O44" s="15" t="s">
@@ -3541,7 +3544,7 @@
       </c>
     </row>
     <row r="45" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="18" t="s">
         <v>12</v>
       </c>
@@ -3700,7 +3703,7 @@
       </c>
     </row>
     <row r="46" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="18" t="s">
         <v>12</v>
       </c>
@@ -3914,7 +3917,7 @@
       <c r="DD46" s="7"/>
     </row>
     <row r="47" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="18" t="s">
         <v>112</v>
       </c>
@@ -4122,7 +4125,7 @@
       <c r="DD47" s="7"/>
     </row>
     <row r="48" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="18" t="s">
         <v>13</v>
       </c>
@@ -4221,7 +4224,7 @@
       </c>
     </row>
     <row r="49" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="18" t="s">
         <v>12</v>
       </c>
@@ -4425,7 +4428,7 @@
       <c r="DD49" s="7"/>
     </row>
     <row r="50" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="18" t="s">
         <v>13</v>
       </c>
@@ -4549,7 +4552,7 @@
       <c r="DD50" s="7"/>
     </row>
     <row r="51" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="18" t="s">
         <v>13</v>
       </c>
@@ -4681,7 +4684,7 @@
       <c r="DD51" s="7"/>
     </row>
     <row r="52" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="18" t="s">
         <v>13</v>
       </c>
@@ -4809,7 +4812,7 @@
       <c r="DD52" s="7"/>
     </row>
     <row r="53" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="18" t="s">
         <v>112</v>
       </c>
@@ -4935,7 +4938,7 @@
       <c r="DD53" s="7"/>
     </row>
     <row r="54" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="18" t="s">
         <v>13</v>
       </c>
@@ -5061,7 +5064,7 @@
       <c r="DD54" s="7"/>
     </row>
     <row r="55" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="18" t="s">
         <v>112</v>
       </c>
@@ -5071,7 +5074,7 @@
       <c r="E55" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="L55" s="30" t="s">
+      <c r="L55" s="51" t="s">
         <v>18</v>
       </c>
       <c r="O55" s="15" t="s">
@@ -5109,7 +5112,7 @@
       </c>
     </row>
     <row r="56" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="18" t="s">
         <v>112</v>
       </c>
@@ -5237,7 +5240,7 @@
       <c r="DD56" s="7"/>
     </row>
     <row r="57" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="18" t="s">
         <v>112</v>
       </c>
@@ -5397,7 +5400,7 @@
       <c r="DD57" s="7"/>
     </row>
     <row r="58" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="18" t="s">
         <v>112</v>
       </c>
@@ -5551,7 +5554,7 @@
       <c r="DD58" s="7"/>
     </row>
     <row r="59" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="18" t="s">
         <v>112</v>
       </c>
@@ -5561,7 +5564,7 @@
       <c r="E59" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="L59" s="30" t="s">
+      <c r="L59" s="68" t="s">
         <v>18</v>
       </c>
       <c r="M59" s="15" t="s">
@@ -5731,7 +5734,7 @@
       <c r="BG60" s="39"/>
     </row>
     <row r="61" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="59" t="s">
         <v>97</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -5772,7 +5775,7 @@
       </c>
     </row>
     <row r="62" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="18" t="s">
         <v>112</v>
       </c>
@@ -5793,7 +5796,7 @@
       </c>
     </row>
     <row r="63" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="18" t="s">
         <v>112</v>
       </c>
@@ -5913,7 +5916,7 @@
       <c r="DD63" s="7"/>
     </row>
     <row r="64" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="18" t="s">
         <v>112</v>
       </c>
@@ -6033,7 +6036,7 @@
       <c r="DD64" s="7"/>
     </row>
     <row r="65" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="18" t="s">
         <v>13</v>
       </c>
@@ -6064,7 +6067,7 @@
       <c r="Y65" s="24"/>
     </row>
     <row r="66" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="18" t="s">
         <v>112</v>
       </c>
@@ -6182,7 +6185,7 @@
       <c r="DD66" s="7"/>
     </row>
     <row r="67" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="18" t="s">
         <v>112</v>
       </c>
@@ -6300,7 +6303,7 @@
       <c r="DD67" s="7"/>
     </row>
     <row r="68" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="18" t="s">
         <v>13</v>
       </c>
@@ -6318,7 +6321,7 @@
       </c>
     </row>
     <row r="69" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="18" t="s">
         <v>13</v>
       </c>
@@ -6436,7 +6439,7 @@
       <c r="DD69" s="7"/>
     </row>
     <row r="70" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="18" t="s">
         <v>13</v>
       </c>
@@ -6554,7 +6557,7 @@
       <c r="DD70" s="7"/>
     </row>
     <row r="71" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
+      <c r="A71" s="59"/>
       <c r="B71" s="18" t="s">
         <v>13</v>
       </c>
@@ -6672,7 +6675,7 @@
       <c r="DD71" s="7"/>
     </row>
     <row r="72" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="18" t="s">
         <v>13</v>
       </c>
@@ -6790,7 +6793,7 @@
       <c r="DD72" s="7"/>
     </row>
     <row r="73" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="18" t="s">
         <v>12</v>
       </c>
@@ -6912,7 +6915,7 @@
       <c r="DD73" s="7"/>
     </row>
     <row r="74" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="18" t="s">
         <v>12</v>
       </c>
@@ -6993,7 +6996,7 @@
       <c r="BG75" s="39"/>
     </row>
     <row r="76" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="59" t="s">
         <v>130</v>
       </c>
       <c r="B76" s="18" t="s">
@@ -7149,7 +7152,7 @@
       <c r="DD76" s="7"/>
     </row>
     <row r="77" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="18" t="s">
         <v>14</v>
       </c>
@@ -7267,7 +7270,7 @@
       <c r="DD77" s="7"/>
     </row>
     <row r="78" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="18" t="s">
         <v>14</v>
       </c>
@@ -7391,7 +7394,7 @@
       <c r="DD78" s="7"/>
     </row>
     <row r="79" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="18" t="s">
         <v>14</v>
       </c>
@@ -7509,7 +7512,7 @@
       <c r="DD79" s="7"/>
     </row>
     <row r="80" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
@@ -7627,7 +7630,7 @@
       <c r="DD80" s="7"/>
     </row>
     <row r="81" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="18" t="s">
         <v>13</v>
       </c>
@@ -7745,7 +7748,7 @@
       <c r="DD81" s="7"/>
     </row>
     <row r="82" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="18" t="s">
         <v>13</v>
       </c>
@@ -7863,7 +7866,7 @@
       <c r="DD82" s="7"/>
     </row>
     <row r="83" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="58"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="18" t="s">
         <v>13</v>
       </c>
@@ -7981,7 +7984,7 @@
       <c r="DD83" s="7"/>
     </row>
     <row r="84" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="18" t="s">
         <v>14</v>
       </c>
@@ -8117,7 +8120,7 @@
       <c r="DD84" s="7"/>
     </row>
     <row r="85" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="18" t="s">
         <v>14</v>
       </c>
@@ -8239,7 +8242,7 @@
       <c r="DD85" s="7"/>
     </row>
     <row r="86" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="18" t="s">
         <v>13</v>
       </c>
@@ -8361,7 +8364,7 @@
       <c r="DD86" s="7"/>
     </row>
     <row r="87" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="18" t="s">
         <v>14</v>
       </c>
@@ -8481,7 +8484,7 @@
       <c r="DD87" s="7"/>
     </row>
     <row r="88" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="58"/>
+      <c r="A88" s="59"/>
       <c r="B88" s="18" t="s">
         <v>14</v>
       </c>
@@ -8659,7 +8662,7 @@
       <c r="BG89" s="39"/>
     </row>
     <row r="90" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="58" t="s">
+      <c r="A90" s="59" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="18" t="s">
@@ -8801,7 +8804,7 @@
       <c r="DD90" s="7"/>
     </row>
     <row r="91" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="58"/>
+      <c r="A91" s="59"/>
       <c r="B91" s="18" t="s">
         <v>112</v>
       </c>
@@ -8919,7 +8922,7 @@
       <c r="DD91" s="7"/>
     </row>
     <row r="92" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="58"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="18" t="s">
         <v>13</v>
       </c>
@@ -9049,7 +9052,7 @@
       <c r="DD92" s="7"/>
     </row>
     <row r="93" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="58"/>
+      <c r="A93" s="59"/>
       <c r="B93" s="18" t="s">
         <v>13</v>
       </c>
@@ -9177,7 +9180,7 @@
       <c r="DD93" s="7"/>
     </row>
     <row r="94" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="18" t="s">
         <v>112</v>
       </c>
@@ -9295,7 +9298,7 @@
       <c r="DD94" s="7"/>
     </row>
     <row r="95" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
+      <c r="A95" s="59"/>
       <c r="B95" s="18" t="s">
         <v>13</v>
       </c>
@@ -9413,7 +9416,7 @@
       <c r="DD95" s="7"/>
     </row>
     <row r="96" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="18" t="s">
         <v>112</v>
       </c>
@@ -9531,7 +9534,7 @@
       <c r="DD96" s="7"/>
     </row>
     <row r="97" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
+      <c r="A97" s="59"/>
       <c r="B97" s="18" t="s">
         <v>13</v>
       </c>
@@ -9713,7 +9716,7 @@
       <c r="BG98" s="39"/>
     </row>
     <row r="99" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="58" t="s">
+      <c r="A99" s="59" t="s">
         <v>156</v>
       </c>
       <c r="B99" s="18" t="s">
@@ -9839,7 +9842,7 @@
       <c r="DD99" s="7"/>
     </row>
     <row r="100" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="58"/>
+      <c r="A100" s="59"/>
       <c r="B100" s="18" t="s">
         <v>13</v>
       </c>
@@ -9959,7 +9962,7 @@
       <c r="DD100" s="7"/>
     </row>
     <row r="101" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="58"/>
+      <c r="A101" s="59"/>
       <c r="B101" s="18" t="s">
         <v>112</v>
       </c>
@@ -10077,7 +10080,7 @@
       <c r="DD101" s="7"/>
     </row>
     <row r="102" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="58"/>
+      <c r="A102" s="59"/>
       <c r="B102" s="18" t="s">
         <v>112</v>
       </c>
@@ -10195,7 +10198,7 @@
       <c r="DD102" s="7"/>
     </row>
     <row r="103" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="58"/>
+      <c r="A103" s="59"/>
       <c r="B103" s="18" t="s">
         <v>13</v>
       </c>
@@ -10315,7 +10318,7 @@
       <c r="DD103" s="7"/>
     </row>
     <row r="104" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="58"/>
+      <c r="A104" s="59"/>
       <c r="B104" s="18" t="s">
         <v>112</v>
       </c>
@@ -10433,7 +10436,7 @@
       <c r="DD104" s="7"/>
     </row>
     <row r="105" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="58"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="18" t="s">
         <v>112</v>
       </c>
@@ -10551,7 +10554,7 @@
       <c r="DD105" s="7"/>
     </row>
     <row r="106" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="58"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="18" t="s">
         <v>112</v>
       </c>
@@ -10669,7 +10672,7 @@
       <c r="DD106" s="7"/>
     </row>
     <row r="107" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="58"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="18" t="s">
         <v>13</v>
       </c>
@@ -10849,7 +10852,7 @@
       <c r="BG108" s="39"/>
     </row>
     <row r="109" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="58" t="s">
+      <c r="A109" s="59" t="s">
         <v>103</v>
       </c>
       <c r="B109" s="18" t="s">
@@ -10975,7 +10978,7 @@
       <c r="DD109" s="7"/>
     </row>
     <row r="110" spans="1:108" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="58"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="18" t="s">
         <v>112</v>
       </c>
@@ -11093,7 +11096,7 @@
       <c r="DD110" s="7"/>
     </row>
     <row r="111" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="58"/>
+      <c r="A111" s="59"/>
       <c r="B111" s="18" t="s">
         <v>13</v>
       </c>
@@ -11211,7 +11214,7 @@
       <c r="DD111" s="7"/>
     </row>
     <row r="112" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
+      <c r="A112" s="59"/>
       <c r="B112" s="18" t="s">
         <v>13</v>
       </c>
@@ -11329,7 +11332,7 @@
       <c r="DD112" s="7"/>
     </row>
     <row r="113" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="58"/>
+      <c r="A113" s="59"/>
       <c r="B113" s="18" t="s">
         <v>13</v>
       </c>
@@ -11447,7 +11450,7 @@
       <c r="DD113" s="7"/>
     </row>
     <row r="114" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="58"/>
+      <c r="A114" s="59"/>
       <c r="B114" s="18" t="s">
         <v>13</v>
       </c>
@@ -11565,7 +11568,7 @@
       <c r="DD114" s="7"/>
     </row>
     <row r="115" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="58"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="18" t="s">
         <v>13</v>
       </c>
@@ -11683,7 +11686,7 @@
       <c r="DD115" s="7"/>
     </row>
     <row r="116" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
+      <c r="A116" s="59"/>
       <c r="B116" s="18" t="s">
         <v>13</v>
       </c>
@@ -11801,7 +11804,7 @@
       <c r="DD116" s="7"/>
     </row>
     <row r="117" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
+      <c r="A117" s="59"/>
       <c r="B117" s="18" t="s">
         <v>112</v>
       </c>
@@ -11919,7 +11922,7 @@
       <c r="DD117" s="7"/>
     </row>
     <row r="118" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="58"/>
+      <c r="A118" s="59"/>
       <c r="B118" s="18" t="s">
         <v>13</v>
       </c>
@@ -12147,7 +12150,7 @@
       <c r="DD119" s="7"/>
     </row>
     <row r="120" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="58" t="s">
+      <c r="A120" s="59" t="s">
         <v>103</v>
       </c>
       <c r="B120" s="18" t="s">
@@ -12267,7 +12270,7 @@
       <c r="DD120" s="7"/>
     </row>
     <row r="121" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="58"/>
+      <c r="A121" s="59"/>
       <c r="B121" s="18" t="s">
         <v>14</v>
       </c>
@@ -12383,7 +12386,7 @@
       <c r="DD121" s="7"/>
     </row>
     <row r="122" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="58"/>
+      <c r="A122" s="59"/>
       <c r="B122" s="18" t="s">
         <v>14</v>
       </c>
@@ -12499,7 +12502,7 @@
       <c r="DD122" s="7"/>
     </row>
     <row r="123" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="58"/>
+      <c r="A123" s="59"/>
       <c r="B123" s="18" t="s">
         <v>14</v>
       </c>
@@ -12615,7 +12618,7 @@
       <c r="DD123" s="7"/>
     </row>
     <row r="124" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="58"/>
+      <c r="A124" s="59"/>
       <c r="B124" s="18" t="s">
         <v>14</v>
       </c>
@@ -12791,7 +12794,7 @@
       <c r="BG125" s="39"/>
     </row>
     <row r="126" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A126" s="58" t="s">
+      <c r="A126" s="59" t="s">
         <v>103</v>
       </c>
       <c r="B126" s="18" t="s">
@@ -12952,7 +12955,7 @@
       </c>
     </row>
     <row r="127" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
+      <c r="A127" s="59"/>
       <c r="B127" s="18" t="s">
         <v>14</v>
       </c>
@@ -13108,7 +13111,7 @@
       </c>
     </row>
     <row r="128" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A128" s="58"/>
+      <c r="A128" s="59"/>
       <c r="B128" s="18" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13267,7 @@
       </c>
     </row>
     <row r="129" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A129" s="58"/>
+      <c r="A129" s="59"/>
       <c r="B129" s="18" t="s">
         <v>14</v>
       </c>
@@ -13420,7 +13423,7 @@
       </c>
     </row>
     <row r="130" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A130" s="58"/>
+      <c r="A130" s="59"/>
       <c r="B130" s="18" t="s">
         <v>14</v>
       </c>
@@ -13637,11 +13640,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="A120:A124"/>
     <mergeCell ref="A76:A88"/>
     <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="F1:K1"/>
@@ -13657,6 +13655,11 @@
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="A44:A59"/>
     <mergeCell ref="A61:A74"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="A120:A124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Modelo BD.xlsx
+++ b/Modelo BD.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="180">
   <si>
     <t>Año Formación</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Producción Técnica y Tecnológica</t>
   </si>
   <si>
-    <t>CARTAS, MAPAS</t>
-  </si>
-  <si>
     <t>CONSULTORÍAS</t>
   </si>
   <si>
@@ -561,13 +558,32 @@
   </si>
   <si>
     <t>Fin Vinculación</t>
+  </si>
+  <si>
+    <t>CARTAS, MAPAS Y SIMILARES</t>
+  </si>
+  <si>
+    <r>
+      <t>GP_ACTIVIDADES_FORM</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,8 +628,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +659,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -939,9 +969,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -966,7 +993,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,13 +1292,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GH131"/>
+  <dimension ref="A1:GH125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,82 +1367,82 @@
     <col min="191" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:190" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="7"/>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="62" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="62" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE1" s="61"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="65"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE1" s="60"/>
       <c r="BF1" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG1" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:190" s="4" customFormat="1" ht="117.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:190" s="4" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1448,124 +1491,124 @@
         <v>48</v>
       </c>
       <c r="T2" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Z2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AA2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AB2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AC2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AE2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AF2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AG2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AH2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AI2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AK2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AK2" s="27" t="s">
-        <v>66</v>
-      </c>
       <c r="AL2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AO2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AP2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AR2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AS2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AT2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AU2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AV2" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="AV2" s="46" t="s">
-        <v>78</v>
-      </c>
       <c r="AW2" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AX2" s="11" t="s">
+      <c r="AY2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="AZ2" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="AZ2" s="46" t="s">
-        <v>83</v>
-      </c>
       <c r="BA2" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="BB2" s="11" t="s">
+      <c r="BC2" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="BC2" s="27" t="s">
-        <v>87</v>
-      </c>
       <c r="BD2" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE2" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="BE2" s="27" t="s">
+      <c r="BF2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="BF2" s="40" t="s">
+      <c r="BG2" s="36" t="s">
         <v>91</v>
-      </c>
-      <c r="BG2" s="36" t="s">
-        <v>92</v>
       </c>
       <c r="BH2" s="49"/>
       <c r="BI2" s="49"/>
@@ -1700,8 +1743,8 @@
       <c r="GH2" s="5"/>
     </row>
     <row r="3" spans="1:190" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>102</v>
+      <c r="A3" s="64" t="s">
+        <v>101</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>13</v>
@@ -1904,7 +1947,7 @@
       <c r="GH3" s="2"/>
     </row>
     <row r="4" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1919,7 +1962,7 @@
       </c>
     </row>
     <row r="5" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
@@ -1934,7 +1977,7 @@
       </c>
     </row>
     <row r="6" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
@@ -1949,7 +1992,7 @@
       </c>
     </row>
     <row r="7" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
@@ -1964,7 +2007,7 @@
       </c>
     </row>
     <row r="8" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
@@ -1980,9 +2023,9 @@
       <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>15</v>
@@ -1995,7 +2038,7 @@
       </c>
     </row>
     <row r="10" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
@@ -2010,9 +2053,9 @@
       </c>
     </row>
     <row r="11" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>15</v>
@@ -2025,9 +2068,9 @@
       </c>
     </row>
     <row r="12" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>15</v>
@@ -2040,9 +2083,9 @@
       </c>
     </row>
     <row r="13" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>15</v>
@@ -2055,9 +2098,9 @@
       </c>
     </row>
     <row r="14" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>15</v>
@@ -2070,9 +2113,9 @@
       </c>
     </row>
     <row r="15" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>15</v>
@@ -2085,9 +2128,9 @@
       </c>
     </row>
     <row r="16" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>15</v>
@@ -2100,9 +2143,9 @@
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>15</v>
@@ -2115,9 +2158,9 @@
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>15</v>
@@ -2130,9 +2173,9 @@
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>15</v>
@@ -2205,8 +2248,8 @@
       <c r="BG20" s="39"/>
     </row>
     <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>101</v>
+      <c r="A21" s="64" t="s">
+        <v>100</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>13</v>
@@ -2225,7 +2268,7 @@
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="18" t="s">
         <v>12</v>
       </c>
@@ -2244,9 +2287,9 @@
       <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>15</v>
@@ -2319,8 +2362,8 @@
       <c r="BG24" s="39"/>
     </row>
     <row r="25" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>100</v>
+      <c r="A25" s="64" t="s">
+        <v>99</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>13</v>
@@ -2339,7 +2382,7 @@
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
@@ -2357,9 +2400,9 @@
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>15</v>
@@ -2432,8 +2475,8 @@
       <c r="BG28" s="39"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
-        <v>99</v>
+      <c r="A29" s="66" t="s">
+        <v>98</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>13</v>
@@ -2453,7 +2496,7 @@
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="18" t="s">
         <v>12</v>
       </c>
@@ -2471,9 +2514,9 @@
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>15</v>
@@ -2546,8 +2589,8 @@
       <c r="BG32" s="39"/>
     </row>
     <row r="33" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
-        <v>98</v>
+      <c r="A33" s="64" t="s">
+        <v>97</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>13</v>
@@ -2567,7 +2610,7 @@
       </c>
     </row>
     <row r="34" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="18" t="s">
         <v>12</v>
       </c>
@@ -2585,7 +2628,7 @@
       </c>
     </row>
     <row r="35" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="18" t="s">
         <v>12</v>
       </c>
@@ -2600,9 +2643,9 @@
       </c>
     </row>
     <row r="36" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>15</v>
@@ -2615,7 +2658,7 @@
       </c>
     </row>
     <row r="37" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="18" t="s">
         <v>13</v>
       </c>
@@ -2733,7 +2776,7 @@
       <c r="DD37" s="7"/>
     </row>
     <row r="38" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="18" t="s">
         <v>13</v>
       </c>
@@ -2742,7 +2785,7 @@
         <v>200</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="15"/>
@@ -2851,7 +2894,7 @@
       <c r="DD38" s="7"/>
     </row>
     <row r="39" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="18" t="s">
         <v>12</v>
       </c>
@@ -2860,7 +2903,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="15"/>
@@ -2969,7 +3012,7 @@
       <c r="DD39" s="7"/>
     </row>
     <row r="40" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="18" t="s">
         <v>13</v>
       </c>
@@ -2978,7 +3021,7 @@
         <v>200</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="15"/>
@@ -3087,7 +3130,7 @@
       <c r="DD40" s="7"/>
     </row>
     <row r="41" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="18" t="s">
         <v>13</v>
       </c>
@@ -3096,7 +3139,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="15"/>
@@ -3205,7 +3248,7 @@
       <c r="DD41" s="7"/>
     </row>
     <row r="42" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="18" t="s">
         <v>13</v>
       </c>
@@ -3214,7 +3257,7 @@
         <v>100</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="15"/>
@@ -3383,8 +3426,8 @@
       <c r="BG43" s="39"/>
     </row>
     <row r="44" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
-        <v>95</v>
+      <c r="A44" s="64" t="s">
+        <v>94</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>13</v>
@@ -3396,12 +3439,12 @@
         <v>13</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L44" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="M44" s="15" t="s">
+      <c r="M44" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N44" s="58" t="s">
@@ -3544,7 +3587,7 @@
       </c>
     </row>
     <row r="45" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="18" t="s">
         <v>12</v>
       </c>
@@ -3560,7 +3603,7 @@
       <c r="L45" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M45" s="15" t="s">
+      <c r="M45" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N45" s="12" t="s">
@@ -3703,7 +3746,7 @@
       </c>
     </row>
     <row r="46" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="18" t="s">
         <v>12</v>
       </c>
@@ -3714,7 +3757,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="15"/>
@@ -3725,7 +3768,7 @@
       <c r="L46" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N46" s="12" t="s">
@@ -3917,16 +3960,16 @@
       <c r="DD46" s="7"/>
     </row>
     <row r="47" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="15"/>
@@ -3937,7 +3980,7 @@
       <c r="L47" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M47" s="15" t="s">
+      <c r="M47" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N47" s="12" t="s">
@@ -4125,7 +4168,7 @@
       <c r="DD47" s="7"/>
     </row>
     <row r="48" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="18" t="s">
         <v>13</v>
       </c>
@@ -4138,7 +4181,7 @@
       <c r="L48" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M48" s="15" t="s">
+      <c r="M48" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N48" s="12" t="s">
@@ -4224,7 +4267,7 @@
       </c>
     </row>
     <row r="49" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="18" t="s">
         <v>12</v>
       </c>
@@ -4233,7 +4276,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="15"/>
@@ -4244,7 +4287,7 @@
       <c r="L49" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="15" t="s">
+      <c r="M49" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N49" s="12" t="s">
@@ -4428,7 +4471,7 @@
       <c r="DD49" s="7"/>
     </row>
     <row r="50" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="18" t="s">
         <v>13</v>
       </c>
@@ -4437,7 +4480,7 @@
         <v>200</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="15"/>
@@ -4552,7 +4595,7 @@
       <c r="DD50" s="7"/>
     </row>
     <row r="51" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="18" t="s">
         <v>13</v>
       </c>
@@ -4561,7 +4604,7 @@
         <v>200</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="15"/>
@@ -4684,7 +4727,7 @@
       <c r="DD51" s="7"/>
     </row>
     <row r="52" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="18" t="s">
         <v>13</v>
       </c>
@@ -4693,7 +4736,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="15"/>
@@ -4704,7 +4747,7 @@
       <c r="L52" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M52" s="15" t="s">
+      <c r="M52" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N52" s="12" t="s">
@@ -4812,16 +4855,16 @@
       <c r="DD52" s="7"/>
     </row>
     <row r="53" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="15"/>
@@ -4830,7 +4873,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="31"/>
       <c r="L53" s="30"/>
-      <c r="M53" s="15" t="s">
+      <c r="M53" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N53" s="12" t="s">
@@ -4938,7 +4981,7 @@
       <c r="DD53" s="7"/>
     </row>
     <row r="54" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="18" t="s">
         <v>13</v>
       </c>
@@ -4947,7 +4990,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="15"/>
@@ -5064,15 +5107,15 @@
       <c r="DD54" s="7"/>
     </row>
     <row r="55" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
+      <c r="A55" s="64"/>
       <c r="B55" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L55" s="51" t="s">
         <v>18</v>
@@ -5112,16 +5155,16 @@
       </c>
     </row>
     <row r="56" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F56" s="30"/>
       <c r="G56" s="15"/>
@@ -5240,16 +5283,16 @@
       <c r="DD56" s="7"/>
     </row>
     <row r="57" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
+      <c r="A57" s="64"/>
       <c r="B57" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="15"/>
@@ -5400,16 +5443,16 @@
       <c r="DD57" s="7"/>
     </row>
     <row r="58" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="15"/>
@@ -5554,20 +5597,20 @@
       <c r="DD58" s="7"/>
     </row>
     <row r="59" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="L59" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="M59" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L59" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N59" s="12" t="s">
@@ -5673,69 +5716,69 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:108" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22"/>
-      <c r="AE60" s="22"/>
-      <c r="AF60" s="22"/>
-      <c r="AG60" s="22"/>
-      <c r="AH60" s="22"/>
-      <c r="AI60" s="22"/>
-      <c r="AJ60" s="22"/>
-      <c r="AK60" s="33"/>
-      <c r="AL60" s="32"/>
-      <c r="AM60" s="22"/>
-      <c r="AN60" s="22"/>
-      <c r="AO60" s="22"/>
-      <c r="AP60" s="22"/>
-      <c r="AQ60" s="22"/>
-      <c r="AR60" s="22"/>
-      <c r="AS60" s="22"/>
-      <c r="AT60" s="22"/>
-      <c r="AU60" s="22"/>
-      <c r="AV60" s="33"/>
-      <c r="AW60" s="32"/>
-      <c r="AX60" s="22"/>
-      <c r="AY60" s="22"/>
-      <c r="AZ60" s="33"/>
-      <c r="BA60" s="32"/>
-      <c r="BB60" s="22"/>
-      <c r="BC60" s="33"/>
-      <c r="BD60" s="32"/>
-      <c r="BE60" s="33"/>
-      <c r="BF60" s="39"/>
-      <c r="BG60" s="39"/>
+    <row r="60" spans="1:108" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="70"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70"/>
+      <c r="R60" s="70"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="70"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="70"/>
+      <c r="X60" s="70"/>
+      <c r="Y60" s="70"/>
+      <c r="Z60" s="70"/>
+      <c r="AA60" s="70"/>
+      <c r="AB60" s="70"/>
+      <c r="AC60" s="70"/>
+      <c r="AD60" s="70"/>
+      <c r="AE60" s="70"/>
+      <c r="AF60" s="70"/>
+      <c r="AG60" s="70"/>
+      <c r="AH60" s="70"/>
+      <c r="AI60" s="70"/>
+      <c r="AJ60" s="70"/>
+      <c r="AK60" s="71"/>
+      <c r="AL60" s="69"/>
+      <c r="AM60" s="70"/>
+      <c r="AN60" s="70"/>
+      <c r="AO60" s="70"/>
+      <c r="AP60" s="70"/>
+      <c r="AQ60" s="70"/>
+      <c r="AR60" s="70"/>
+      <c r="AS60" s="70"/>
+      <c r="AT60" s="70"/>
+      <c r="AU60" s="70"/>
+      <c r="AV60" s="71"/>
+      <c r="AW60" s="69"/>
+      <c r="AX60" s="70"/>
+      <c r="AY60" s="70"/>
+      <c r="AZ60" s="71"/>
+      <c r="BA60" s="69"/>
+      <c r="BB60" s="70"/>
+      <c r="BC60" s="71"/>
+      <c r="BD60" s="69"/>
+      <c r="BE60" s="71"/>
+      <c r="BF60" s="72"/>
+      <c r="BG60" s="72"/>
     </row>
     <row r="61" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A61" s="59" t="s">
-        <v>97</v>
+      <c r="A61" s="64" t="s">
+        <v>96</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>13</v>
@@ -5747,12 +5790,12 @@
         <v>13</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L61" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M61" s="15" t="s">
+      <c r="M61" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N61" s="12" t="s">
@@ -5775,15 +5818,15 @@
       </c>
     </row>
     <row r="62" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
+      <c r="A62" s="64"/>
       <c r="B62" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L62" s="51" t="s">
         <v>18</v>
@@ -5796,16 +5839,16 @@
       </c>
     </row>
     <row r="63" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F63" s="30"/>
       <c r="G63" s="15"/>
@@ -5916,16 +5959,16 @@
       <c r="DD63" s="7"/>
     </row>
     <row r="64" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
+      <c r="A64" s="64"/>
       <c r="B64" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F64" s="30"/>
       <c r="G64" s="15"/>
@@ -6036,7 +6079,7 @@
       <c r="DD64" s="7"/>
     </row>
     <row r="65" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
+      <c r="A65" s="64"/>
       <c r="B65" s="18" t="s">
         <v>13</v>
       </c>
@@ -6044,12 +6087,12 @@
         <v>100</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L65" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="M65" s="15" t="s">
+      <c r="M65" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N65" s="23" t="s">
@@ -6067,16 +6110,16 @@
       <c r="Y65" s="24"/>
     </row>
     <row r="66" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
+      <c r="A66" s="64"/>
       <c r="B66" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F66" s="30"/>
       <c r="G66" s="15"/>
@@ -6185,16 +6228,16 @@
       <c r="DD66" s="7"/>
     </row>
     <row r="67" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
+      <c r="A67" s="64"/>
       <c r="B67" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F67" s="30"/>
       <c r="G67" s="15"/>
@@ -6303,7 +6346,7 @@
       <c r="DD67" s="7"/>
     </row>
     <row r="68" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
+      <c r="A68" s="64"/>
       <c r="B68" s="18" t="s">
         <v>13</v>
       </c>
@@ -6311,7 +6354,7 @@
         <v>100</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L68" s="51" t="s">
         <v>18</v>
@@ -6321,7 +6364,7 @@
       </c>
     </row>
     <row r="69" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
+      <c r="A69" s="64"/>
       <c r="B69" s="18" t="s">
         <v>13</v>
       </c>
@@ -6330,7 +6373,7 @@
         <v>100</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F69" s="30"/>
       <c r="G69" s="15"/>
@@ -6439,7 +6482,7 @@
       <c r="DD69" s="7"/>
     </row>
     <row r="70" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
+      <c r="A70" s="64"/>
       <c r="B70" s="18" t="s">
         <v>13</v>
       </c>
@@ -6448,7 +6491,7 @@
         <v>100</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F70" s="30"/>
       <c r="G70" s="15"/>
@@ -6557,7 +6600,7 @@
       <c r="DD70" s="7"/>
     </row>
     <row r="71" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
+      <c r="A71" s="64"/>
       <c r="B71" s="18" t="s">
         <v>13</v>
       </c>
@@ -6566,7 +6609,7 @@
         <v>100</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="15"/>
@@ -6675,7 +6718,7 @@
       <c r="DD71" s="7"/>
     </row>
     <row r="72" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
+      <c r="A72" s="64"/>
       <c r="B72" s="18" t="s">
         <v>13</v>
       </c>
@@ -6684,7 +6727,7 @@
         <v>100</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="15"/>
@@ -6793,7 +6836,7 @@
       <c r="DD72" s="7"/>
     </row>
     <row r="73" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="18" t="s">
         <v>12</v>
       </c>
@@ -6802,7 +6845,7 @@
         <v>50</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F73" s="30"/>
       <c r="G73" s="15"/>
@@ -6915,7 +6958,7 @@
       <c r="DD73" s="7"/>
     </row>
     <row r="74" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
+      <c r="A74" s="64"/>
       <c r="B74" s="18" t="s">
         <v>12</v>
       </c>
@@ -6923,7 +6966,7 @@
         <v>50</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L74" s="51" t="s">
         <v>18</v>
@@ -6996,8 +7039,8 @@
       <c r="BG75" s="39"/>
     </row>
     <row r="76" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="59" t="s">
-        <v>130</v>
+      <c r="A76" s="64" t="s">
+        <v>129</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>13</v>
@@ -7009,7 +7052,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="15"/>
@@ -7152,7 +7195,7 @@
       <c r="DD76" s="7"/>
     </row>
     <row r="77" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
+      <c r="A77" s="64"/>
       <c r="B77" s="18" t="s">
         <v>14</v>
       </c>
@@ -7161,7 +7204,7 @@
         <v>15</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F77" s="30"/>
       <c r="G77" s="15"/>
@@ -7270,7 +7313,7 @@
       <c r="DD77" s="7"/>
     </row>
     <row r="78" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
+      <c r="A78" s="64"/>
       <c r="B78" s="18" t="s">
         <v>14</v>
       </c>
@@ -7279,7 +7322,7 @@
         <v>15</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="15"/>
@@ -7394,7 +7437,7 @@
       <c r="DD78" s="7"/>
     </row>
     <row r="79" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
+      <c r="A79" s="64"/>
       <c r="B79" s="18" t="s">
         <v>14</v>
       </c>
@@ -7403,7 +7446,7 @@
         <v>15</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="15"/>
@@ -7512,7 +7555,7 @@
       <c r="DD79" s="7"/>
     </row>
     <row r="80" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
+      <c r="A80" s="64"/>
       <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
@@ -7521,7 +7564,7 @@
         <v>15</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="15"/>
@@ -7630,7 +7673,7 @@
       <c r="DD80" s="7"/>
     </row>
     <row r="81" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
+      <c r="A81" s="64"/>
       <c r="B81" s="18" t="s">
         <v>13</v>
       </c>
@@ -7639,7 +7682,7 @@
         <v>100</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="15"/>
@@ -7748,7 +7791,7 @@
       <c r="DD81" s="7"/>
     </row>
     <row r="82" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
+      <c r="A82" s="64"/>
       <c r="B82" s="18" t="s">
         <v>13</v>
       </c>
@@ -7757,7 +7800,7 @@
         <v>100</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F82" s="30"/>
       <c r="G82" s="15"/>
@@ -7866,7 +7909,7 @@
       <c r="DD82" s="7"/>
     </row>
     <row r="83" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
+      <c r="A83" s="64"/>
       <c r="B83" s="18" t="s">
         <v>13</v>
       </c>
@@ -7875,7 +7918,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F83" s="30"/>
       <c r="G83" s="15"/>
@@ -7984,7 +8027,7 @@
       <c r="DD83" s="7"/>
     </row>
     <row r="84" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
+      <c r="A84" s="64"/>
       <c r="B84" s="18" t="s">
         <v>14</v>
       </c>
@@ -7993,7 +8036,7 @@
         <v>15</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F84" s="30"/>
       <c r="G84" s="15"/>
@@ -8120,7 +8163,7 @@
       <c r="DD84" s="7"/>
     </row>
     <row r="85" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
+      <c r="A85" s="64"/>
       <c r="B85" s="18" t="s">
         <v>14</v>
       </c>
@@ -8129,7 +8172,7 @@
         <v>15</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F85" s="30"/>
       <c r="G85" s="15"/>
@@ -8242,7 +8285,7 @@
       <c r="DD85" s="7"/>
     </row>
     <row r="86" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
+      <c r="A86" s="64"/>
       <c r="B86" s="18" t="s">
         <v>13</v>
       </c>
@@ -8251,7 +8294,7 @@
         <v>100</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F86" s="30"/>
       <c r="G86" s="15"/>
@@ -8364,7 +8407,7 @@
       <c r="DD86" s="7"/>
     </row>
     <row r="87" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
+      <c r="A87" s="64"/>
       <c r="B87" s="18" t="s">
         <v>14</v>
       </c>
@@ -8373,7 +8416,7 @@
         <v>15</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F87" s="30"/>
       <c r="G87" s="15"/>
@@ -8484,7 +8527,7 @@
       <c r="DD87" s="7"/>
     </row>
     <row r="88" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
+      <c r="A88" s="64"/>
       <c r="B88" s="18" t="s">
         <v>14</v>
       </c>
@@ -8493,7 +8536,7 @@
         <v>15</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F88" s="30"/>
       <c r="G88" s="15"/>
@@ -8662,8 +8705,8 @@
       <c r="BG89" s="39"/>
     </row>
     <row r="90" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="59" t="s">
-        <v>146</v>
+      <c r="A90" s="64" t="s">
+        <v>145</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>13</v>
@@ -8675,7 +8718,7 @@
         <v>13</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F90" s="30"/>
       <c r="G90" s="15"/>
@@ -8804,16 +8847,16 @@
       <c r="DD90" s="7"/>
     </row>
     <row r="91" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
+      <c r="A91" s="64"/>
       <c r="B91" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F91" s="30"/>
       <c r="G91" s="15"/>
@@ -8922,7 +8965,7 @@
       <c r="DD91" s="7"/>
     </row>
     <row r="92" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="59"/>
+      <c r="A92" s="64"/>
       <c r="B92" s="18" t="s">
         <v>13</v>
       </c>
@@ -8931,7 +8974,7 @@
         <v>100</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F92" s="30"/>
       <c r="G92" s="15"/>
@@ -9052,7 +9095,7 @@
       <c r="DD92" s="7"/>
     </row>
     <row r="93" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
+      <c r="A93" s="64"/>
       <c r="B93" s="18" t="s">
         <v>13</v>
       </c>
@@ -9061,7 +9104,7 @@
         <v>100</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F93" s="30"/>
       <c r="G93" s="15"/>
@@ -9180,16 +9223,16 @@
       <c r="DD93" s="7"/>
     </row>
     <row r="94" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
+      <c r="A94" s="64"/>
       <c r="B94" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F94" s="30"/>
       <c r="G94" s="15"/>
@@ -9298,7 +9341,7 @@
       <c r="DD94" s="7"/>
     </row>
     <row r="95" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
+      <c r="A95" s="64"/>
       <c r="B95" s="18" t="s">
         <v>13</v>
       </c>
@@ -9307,7 +9350,7 @@
         <v>100</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F95" s="30"/>
       <c r="G95" s="15"/>
@@ -9416,16 +9459,16 @@
       <c r="DD95" s="7"/>
     </row>
     <row r="96" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
+      <c r="A96" s="64"/>
       <c r="B96" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F96" s="30"/>
       <c r="G96" s="15"/>
@@ -9534,7 +9577,7 @@
       <c r="DD96" s="7"/>
     </row>
     <row r="97" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
+      <c r="A97" s="64"/>
       <c r="B97" s="18" t="s">
         <v>13</v>
       </c>
@@ -9543,7 +9586,7 @@
         <v>100</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F97" s="30"/>
       <c r="G97" s="15"/>
@@ -9716,8 +9759,8 @@
       <c r="BG98" s="39"/>
     </row>
     <row r="99" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="59" t="s">
-        <v>156</v>
+      <c r="A99" s="64" t="s">
+        <v>155</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>13</v>
@@ -9729,7 +9772,7 @@
         <v>13</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F99" s="30"/>
       <c r="G99" s="15"/>
@@ -9842,7 +9885,7 @@
       <c r="DD99" s="7"/>
     </row>
     <row r="100" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="59"/>
+      <c r="A100" s="64"/>
       <c r="B100" s="18" t="s">
         <v>13</v>
       </c>
@@ -9851,7 +9894,7 @@
         <v>100</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F100" s="30"/>
       <c r="G100" s="15"/>
@@ -9962,16 +10005,16 @@
       <c r="DD100" s="7"/>
     </row>
     <row r="101" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="59"/>
+      <c r="A101" s="64"/>
       <c r="B101" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F101" s="30"/>
       <c r="G101" s="15"/>
@@ -10080,16 +10123,16 @@
       <c r="DD101" s="7"/>
     </row>
     <row r="102" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="59"/>
+      <c r="A102" s="64"/>
       <c r="B102" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F102" s="30"/>
       <c r="G102" s="15"/>
@@ -10198,7 +10241,7 @@
       <c r="DD102" s="7"/>
     </row>
     <row r="103" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="59"/>
+      <c r="A103" s="64"/>
       <c r="B103" s="18" t="s">
         <v>13</v>
       </c>
@@ -10207,7 +10250,7 @@
         <v>100</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F103" s="30"/>
       <c r="G103" s="15"/>
@@ -10318,16 +10361,16 @@
       <c r="DD103" s="7"/>
     </row>
     <row r="104" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="59"/>
+      <c r="A104" s="64"/>
       <c r="B104" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F104" s="30"/>
       <c r="G104" s="15"/>
@@ -10436,16 +10479,16 @@
       <c r="DD104" s="7"/>
     </row>
     <row r="105" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="59"/>
+      <c r="A105" s="64"/>
       <c r="B105" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F105" s="30"/>
       <c r="G105" s="15"/>
@@ -10554,16 +10597,16 @@
       <c r="DD105" s="7"/>
     </row>
     <row r="106" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="59"/>
+      <c r="A106" s="64"/>
       <c r="B106" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F106" s="30"/>
       <c r="G106" s="15"/>
@@ -10672,7 +10715,7 @@
       <c r="DD106" s="7"/>
     </row>
     <row r="107" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="59"/>
+      <c r="A107" s="64"/>
       <c r="B107" s="18" t="s">
         <v>13</v>
       </c>
@@ -10681,7 +10724,7 @@
         <v>200</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F107" s="30"/>
       <c r="G107" s="15"/>
@@ -10852,8 +10895,8 @@
       <c r="BG108" s="39"/>
     </row>
     <row r="109" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="59" t="s">
-        <v>103</v>
+      <c r="A109" s="64" t="s">
+        <v>179</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>13</v>
@@ -10865,7 +10908,7 @@
         <v>13</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F109" s="30"/>
       <c r="G109" s="15"/>
@@ -10978,16 +11021,16 @@
       <c r="DD109" s="7"/>
     </row>
     <row r="110" spans="1:108" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
+      <c r="A110" s="64"/>
       <c r="B110" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F110" s="30"/>
       <c r="G110" s="15"/>
@@ -11096,7 +11139,7 @@
       <c r="DD110" s="7"/>
     </row>
     <row r="111" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="59"/>
+      <c r="A111" s="64"/>
       <c r="B111" s="18" t="s">
         <v>13</v>
       </c>
@@ -11105,7 +11148,7 @@
         <v>100</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F111" s="30"/>
       <c r="G111" s="15"/>
@@ -11214,7 +11257,7 @@
       <c r="DD111" s="7"/>
     </row>
     <row r="112" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="59"/>
+      <c r="A112" s="64"/>
       <c r="B112" s="18" t="s">
         <v>13</v>
       </c>
@@ -11223,7 +11266,7 @@
         <v>200</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F112" s="30"/>
       <c r="G112" s="15"/>
@@ -11332,7 +11375,7 @@
       <c r="DD112" s="7"/>
     </row>
     <row r="113" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="59"/>
+      <c r="A113" s="64"/>
       <c r="B113" s="18" t="s">
         <v>13</v>
       </c>
@@ -11341,7 +11384,7 @@
         <v>200</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F113" s="30"/>
       <c r="G113" s="15"/>
@@ -11450,7 +11493,7 @@
       <c r="DD113" s="7"/>
     </row>
     <row r="114" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="59"/>
+      <c r="A114" s="64"/>
       <c r="B114" s="18" t="s">
         <v>13</v>
       </c>
@@ -11459,7 +11502,7 @@
         <v>200</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F114" s="30"/>
       <c r="G114" s="15"/>
@@ -11568,7 +11611,7 @@
       <c r="DD114" s="7"/>
     </row>
     <row r="115" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="59"/>
+      <c r="A115" s="64"/>
       <c r="B115" s="18" t="s">
         <v>13</v>
       </c>
@@ -11577,7 +11620,7 @@
         <v>100</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F115" s="30"/>
       <c r="G115" s="15"/>
@@ -11686,7 +11729,7 @@
       <c r="DD115" s="7"/>
     </row>
     <row r="116" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="59"/>
+      <c r="A116" s="64"/>
       <c r="B116" s="18" t="s">
         <v>13</v>
       </c>
@@ -11695,7 +11738,7 @@
         <v>100</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F116" s="30"/>
       <c r="G116" s="15"/>
@@ -11804,16 +11847,16 @@
       <c r="DD116" s="7"/>
     </row>
     <row r="117" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="59"/>
+      <c r="A117" s="64"/>
       <c r="B117" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F117" s="30"/>
       <c r="G117" s="15"/>
@@ -11922,7 +11965,7 @@
       <c r="DD117" s="7"/>
     </row>
     <row r="118" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="59"/>
+      <c r="A118" s="64"/>
       <c r="B118" s="18" t="s">
         <v>13</v>
       </c>
@@ -11931,7 +11974,7 @@
         <v>100</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F118" s="30"/>
       <c r="G118" s="15"/>
@@ -12039,119 +12082,69 @@
       <c r="DC118" s="7"/>
       <c r="DD118" s="7"/>
     </row>
-    <row r="119" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
+    <row r="119" spans="1:108" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="31"/>
-      <c r="L119" s="30"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="15"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="15"/>
-      <c r="R119" s="12"/>
-      <c r="S119" s="31"/>
-      <c r="T119" s="30"/>
-      <c r="U119" s="15"/>
-      <c r="V119" s="12"/>
-      <c r="W119" s="15"/>
-      <c r="X119" s="12"/>
-      <c r="Y119" s="15"/>
-      <c r="Z119" s="12"/>
-      <c r="AA119" s="15"/>
-      <c r="AB119" s="12"/>
-      <c r="AC119" s="15"/>
-      <c r="AD119" s="12"/>
-      <c r="AE119" s="15"/>
-      <c r="AF119" s="12"/>
-      <c r="AG119" s="15"/>
-      <c r="AH119" s="12"/>
-      <c r="AI119" s="15"/>
-      <c r="AJ119" s="12"/>
-      <c r="AK119" s="31"/>
-      <c r="AL119" s="30"/>
-      <c r="AM119" s="15"/>
-      <c r="AN119" s="12"/>
-      <c r="AO119" s="15"/>
-      <c r="AP119" s="12"/>
-      <c r="AQ119" s="15"/>
-      <c r="AR119" s="12"/>
-      <c r="AS119" s="15"/>
-      <c r="AT119" s="12"/>
-      <c r="AU119" s="15"/>
-      <c r="AV119" s="48"/>
-      <c r="AW119" s="45"/>
-      <c r="AX119" s="12"/>
-      <c r="AY119" s="15"/>
-      <c r="AZ119" s="48"/>
-      <c r="BA119" s="45"/>
-      <c r="BB119" s="12"/>
-      <c r="BC119" s="31"/>
-      <c r="BD119" s="30"/>
-      <c r="BE119" s="31"/>
-      <c r="BF119" s="42"/>
-      <c r="BG119" s="38"/>
-      <c r="BH119" s="7"/>
-      <c r="BI119" s="7"/>
-      <c r="BJ119" s="7"/>
-      <c r="BK119" s="7"/>
-      <c r="BL119" s="7"/>
-      <c r="BM119" s="7"/>
-      <c r="BN119" s="7"/>
-      <c r="BO119" s="7"/>
-      <c r="BP119" s="7"/>
-      <c r="BQ119" s="7"/>
-      <c r="BR119" s="7"/>
-      <c r="BS119" s="7"/>
-      <c r="BT119" s="7"/>
-      <c r="BU119" s="7"/>
-      <c r="BV119" s="7"/>
-      <c r="BW119" s="7"/>
-      <c r="BX119" s="7"/>
-      <c r="BY119" s="7"/>
-      <c r="BZ119" s="7"/>
-      <c r="CA119" s="7"/>
-      <c r="CB119" s="7"/>
-      <c r="CC119" s="7"/>
-      <c r="CD119" s="7"/>
-      <c r="CE119" s="7"/>
-      <c r="CF119" s="7"/>
-      <c r="CG119" s="7"/>
-      <c r="CH119" s="7"/>
-      <c r="CI119" s="7"/>
-      <c r="CJ119" s="7"/>
-      <c r="CK119" s="7"/>
-      <c r="CL119" s="7"/>
-      <c r="CM119" s="7"/>
-      <c r="CN119" s="7"/>
-      <c r="CO119" s="7"/>
-      <c r="CP119" s="7"/>
-      <c r="CQ119" s="7"/>
-      <c r="CR119" s="7"/>
-      <c r="CS119" s="7"/>
-      <c r="CT119" s="7"/>
-      <c r="CU119" s="7"/>
-      <c r="CV119" s="7"/>
-      <c r="CW119" s="7"/>
-      <c r="CX119" s="7"/>
-      <c r="CY119" s="7"/>
-      <c r="CZ119" s="7"/>
-      <c r="DA119" s="7"/>
-      <c r="DB119" s="7"/>
-      <c r="DC119" s="7"/>
-      <c r="DD119" s="7"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="33"/>
+      <c r="L119" s="32"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="22"/>
+      <c r="S119" s="33"/>
+      <c r="T119" s="32"/>
+      <c r="U119" s="22"/>
+      <c r="V119" s="22"/>
+      <c r="W119" s="22"/>
+      <c r="X119" s="22"/>
+      <c r="Y119" s="22"/>
+      <c r="Z119" s="22"/>
+      <c r="AA119" s="22"/>
+      <c r="AB119" s="22"/>
+      <c r="AC119" s="22"/>
+      <c r="AD119" s="22"/>
+      <c r="AE119" s="22"/>
+      <c r="AF119" s="22"/>
+      <c r="AG119" s="22"/>
+      <c r="AH119" s="22"/>
+      <c r="AI119" s="22"/>
+      <c r="AJ119" s="22"/>
+      <c r="AK119" s="33"/>
+      <c r="AL119" s="32"/>
+      <c r="AM119" s="22"/>
+      <c r="AN119" s="22"/>
+      <c r="AO119" s="22"/>
+      <c r="AP119" s="22"/>
+      <c r="AQ119" s="22"/>
+      <c r="AR119" s="22"/>
+      <c r="AS119" s="22"/>
+      <c r="AT119" s="22"/>
+      <c r="AU119" s="22"/>
+      <c r="AV119" s="33"/>
+      <c r="AW119" s="32"/>
+      <c r="AX119" s="22"/>
+      <c r="AY119" s="22"/>
+      <c r="AZ119" s="33"/>
+      <c r="BA119" s="32"/>
+      <c r="BB119" s="22"/>
+      <c r="BC119" s="33"/>
+      <c r="BD119" s="32"/>
+      <c r="BE119" s="33"/>
+      <c r="BF119" s="39"/>
+      <c r="BG119" s="39"/>
     </row>
-    <row r="120" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="59" t="s">
-        <v>103</v>
+    <row r="120" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A120" s="64" t="s">
+        <v>102</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>13</v>
@@ -12163,577 +12156,778 @@
         <v>13</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F120" s="30"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="31"/>
-      <c r="L120" s="30"/>
-      <c r="M120" s="15"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="15"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="15"/>
-      <c r="R120" s="12"/>
-      <c r="S120" s="31"/>
-      <c r="T120" s="30"/>
-      <c r="U120" s="15"/>
-      <c r="V120" s="12"/>
-      <c r="W120" s="15"/>
-      <c r="X120" s="12"/>
-      <c r="Y120" s="15"/>
-      <c r="Z120" s="12"/>
-      <c r="AA120" s="15"/>
-      <c r="AB120" s="12"/>
-      <c r="AC120" s="15"/>
-      <c r="AD120" s="12"/>
-      <c r="AE120" s="15"/>
-      <c r="AF120" s="12"/>
-      <c r="AG120" s="15"/>
-      <c r="AH120" s="12"/>
-      <c r="AI120" s="15"/>
-      <c r="AJ120" s="12"/>
-      <c r="AK120" s="31"/>
-      <c r="AL120" s="30"/>
-      <c r="AM120" s="15"/>
-      <c r="AN120" s="12"/>
-      <c r="AO120" s="15"/>
-      <c r="AP120" s="12"/>
-      <c r="AQ120" s="15"/>
-      <c r="AR120" s="12"/>
-      <c r="AS120" s="15"/>
-      <c r="AT120" s="12"/>
-      <c r="AU120" s="15"/>
-      <c r="AV120" s="48"/>
-      <c r="AW120" s="45"/>
-      <c r="AX120" s="12"/>
-      <c r="AY120" s="15"/>
-      <c r="AZ120" s="48"/>
-      <c r="BA120" s="45"/>
-      <c r="BB120" s="12"/>
-      <c r="BC120" s="31"/>
-      <c r="BD120" s="30"/>
-      <c r="BE120" s="31"/>
-      <c r="BF120" s="42"/>
-      <c r="BG120" s="38"/>
-      <c r="BH120" s="7"/>
-      <c r="BI120" s="7"/>
-      <c r="BJ120" s="7"/>
-      <c r="BK120" s="7"/>
-      <c r="BL120" s="7"/>
-      <c r="BM120" s="7"/>
-      <c r="BN120" s="7"/>
-      <c r="BO120" s="7"/>
-      <c r="BP120" s="7"/>
-      <c r="BQ120" s="7"/>
-      <c r="BR120" s="7"/>
-      <c r="BS120" s="7"/>
-      <c r="BT120" s="7"/>
-      <c r="BU120" s="7"/>
-      <c r="BV120" s="7"/>
-      <c r="BW120" s="7"/>
-      <c r="BX120" s="7"/>
-      <c r="BY120" s="7"/>
-      <c r="BZ120" s="7"/>
-      <c r="CA120" s="7"/>
-      <c r="CB120" s="7"/>
-      <c r="CC120" s="7"/>
-      <c r="CD120" s="7"/>
-      <c r="CE120" s="7"/>
-      <c r="CF120" s="7"/>
-      <c r="CG120" s="7"/>
-      <c r="CH120" s="7"/>
-      <c r="CI120" s="7"/>
-      <c r="CJ120" s="7"/>
-      <c r="CK120" s="7"/>
-      <c r="CL120" s="7"/>
-      <c r="CM120" s="7"/>
-      <c r="CN120" s="7"/>
-      <c r="CO120" s="7"/>
-      <c r="CP120" s="7"/>
-      <c r="CQ120" s="7"/>
-      <c r="CR120" s="7"/>
-      <c r="CS120" s="7"/>
-      <c r="CT120" s="7"/>
-      <c r="CU120" s="7"/>
-      <c r="CV120" s="7"/>
-      <c r="CW120" s="7"/>
-      <c r="CX120" s="7"/>
-      <c r="CY120" s="7"/>
-      <c r="CZ120" s="7"/>
-      <c r="DA120" s="7"/>
-      <c r="DB120" s="7"/>
-      <c r="DC120" s="7"/>
-      <c r="DD120" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="L120" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="N120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="O120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="R120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="S120" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="T120" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="U120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="V120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="W120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="X120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK120" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL120" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV120" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW120" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ120" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA120" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB120" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC120" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD120" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE120" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF120" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG120" s="73" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="121" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="59"/>
+    <row r="121" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A121" s="64"/>
       <c r="B121" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C121" s="18"/>
       <c r="D121" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F121" s="30"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="31"/>
-      <c r="L121" s="30"/>
-      <c r="M121" s="15"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="15"/>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="15"/>
-      <c r="R121" s="12"/>
-      <c r="S121" s="31"/>
-      <c r="T121" s="30"/>
-      <c r="U121" s="15"/>
-      <c r="V121" s="12"/>
-      <c r="W121" s="15"/>
-      <c r="X121" s="12"/>
-      <c r="Y121" s="15"/>
-      <c r="Z121" s="12"/>
-      <c r="AA121" s="15"/>
-      <c r="AB121" s="12"/>
-      <c r="AC121" s="15"/>
-      <c r="AD121" s="12"/>
-      <c r="AE121" s="15"/>
-      <c r="AF121" s="12"/>
-      <c r="AG121" s="15"/>
-      <c r="AH121" s="12"/>
-      <c r="AI121" s="15"/>
-      <c r="AJ121" s="12"/>
-      <c r="AK121" s="31"/>
-      <c r="AL121" s="30"/>
-      <c r="AM121" s="15"/>
-      <c r="AN121" s="12"/>
-      <c r="AO121" s="15"/>
-      <c r="AP121" s="12"/>
-      <c r="AQ121" s="15"/>
-      <c r="AR121" s="12"/>
-      <c r="AS121" s="15"/>
-      <c r="AT121" s="12"/>
-      <c r="AU121" s="15"/>
-      <c r="AV121" s="48"/>
-      <c r="AW121" s="45"/>
-      <c r="AX121" s="12"/>
-      <c r="AY121" s="15"/>
-      <c r="AZ121" s="48"/>
-      <c r="BA121" s="45"/>
-      <c r="BB121" s="12"/>
-      <c r="BC121" s="31"/>
-      <c r="BD121" s="30"/>
-      <c r="BE121" s="31"/>
-      <c r="BF121" s="42"/>
-      <c r="BG121" s="38"/>
-      <c r="BH121" s="7"/>
-      <c r="BI121" s="7"/>
-      <c r="BJ121" s="7"/>
-      <c r="BK121" s="7"/>
-      <c r="BL121" s="7"/>
-      <c r="BM121" s="7"/>
-      <c r="BN121" s="7"/>
-      <c r="BO121" s="7"/>
-      <c r="BP121" s="7"/>
-      <c r="BQ121" s="7"/>
-      <c r="BR121" s="7"/>
-      <c r="BS121" s="7"/>
-      <c r="BT121" s="7"/>
-      <c r="BU121" s="7"/>
-      <c r="BV121" s="7"/>
-      <c r="BW121" s="7"/>
-      <c r="BX121" s="7"/>
-      <c r="BY121" s="7"/>
-      <c r="BZ121" s="7"/>
-      <c r="CA121" s="7"/>
-      <c r="CB121" s="7"/>
-      <c r="CC121" s="7"/>
-      <c r="CD121" s="7"/>
-      <c r="CE121" s="7"/>
-      <c r="CF121" s="7"/>
-      <c r="CG121" s="7"/>
-      <c r="CH121" s="7"/>
-      <c r="CI121" s="7"/>
-      <c r="CJ121" s="7"/>
-      <c r="CK121" s="7"/>
-      <c r="CL121" s="7"/>
-      <c r="CM121" s="7"/>
-      <c r="CN121" s="7"/>
-      <c r="CO121" s="7"/>
-      <c r="CP121" s="7"/>
-      <c r="CQ121" s="7"/>
-      <c r="CR121" s="7"/>
-      <c r="CS121" s="7"/>
-      <c r="CT121" s="7"/>
-      <c r="CU121" s="7"/>
-      <c r="CV121" s="7"/>
-      <c r="CW121" s="7"/>
-      <c r="CX121" s="7"/>
-      <c r="CY121" s="7"/>
-      <c r="CZ121" s="7"/>
-      <c r="DA121" s="7"/>
-      <c r="DB121" s="7"/>
-      <c r="DC121" s="7"/>
-      <c r="DD121" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="L121" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="N121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="O121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="R121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="S121" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="T121" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="U121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="V121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="W121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="X121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK121" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL121" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV121" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW121" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ121" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA121" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB121" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC121" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD121" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE121" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF121" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG121" s="73" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="122" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="59"/>
+    <row r="122" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A122" s="64"/>
       <c r="B122" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="18"/>
       <c r="D122" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F122" s="30"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="31"/>
-      <c r="L122" s="30"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="15"/>
-      <c r="P122" s="12"/>
-      <c r="Q122" s="15"/>
-      <c r="R122" s="12"/>
-      <c r="S122" s="31"/>
-      <c r="T122" s="30"/>
-      <c r="U122" s="15"/>
-      <c r="V122" s="12"/>
-      <c r="W122" s="15"/>
-      <c r="X122" s="12"/>
-      <c r="Y122" s="15"/>
-      <c r="Z122" s="12"/>
-      <c r="AA122" s="15"/>
-      <c r="AB122" s="12"/>
-      <c r="AC122" s="15"/>
-      <c r="AD122" s="12"/>
-      <c r="AE122" s="15"/>
-      <c r="AF122" s="12"/>
-      <c r="AG122" s="15"/>
-      <c r="AH122" s="12"/>
-      <c r="AI122" s="15"/>
-      <c r="AJ122" s="12"/>
-      <c r="AK122" s="31"/>
-      <c r="AL122" s="30"/>
-      <c r="AM122" s="15"/>
-      <c r="AN122" s="12"/>
-      <c r="AO122" s="15"/>
-      <c r="AP122" s="12"/>
-      <c r="AQ122" s="15"/>
-      <c r="AR122" s="12"/>
-      <c r="AS122" s="15"/>
-      <c r="AT122" s="12"/>
-      <c r="AU122" s="15"/>
-      <c r="AV122" s="48"/>
-      <c r="AW122" s="45"/>
-      <c r="AX122" s="12"/>
-      <c r="AY122" s="15"/>
-      <c r="AZ122" s="48"/>
-      <c r="BA122" s="45"/>
-      <c r="BB122" s="12"/>
-      <c r="BC122" s="31"/>
-      <c r="BD122" s="30"/>
-      <c r="BE122" s="31"/>
-      <c r="BF122" s="42"/>
-      <c r="BG122" s="38"/>
-      <c r="BH122" s="7"/>
-      <c r="BI122" s="7"/>
-      <c r="BJ122" s="7"/>
-      <c r="BK122" s="7"/>
-      <c r="BL122" s="7"/>
-      <c r="BM122" s="7"/>
-      <c r="BN122" s="7"/>
-      <c r="BO122" s="7"/>
-      <c r="BP122" s="7"/>
-      <c r="BQ122" s="7"/>
-      <c r="BR122" s="7"/>
-      <c r="BS122" s="7"/>
-      <c r="BT122" s="7"/>
-      <c r="BU122" s="7"/>
-      <c r="BV122" s="7"/>
-      <c r="BW122" s="7"/>
-      <c r="BX122" s="7"/>
-      <c r="BY122" s="7"/>
-      <c r="BZ122" s="7"/>
-      <c r="CA122" s="7"/>
-      <c r="CB122" s="7"/>
-      <c r="CC122" s="7"/>
-      <c r="CD122" s="7"/>
-      <c r="CE122" s="7"/>
-      <c r="CF122" s="7"/>
-      <c r="CG122" s="7"/>
-      <c r="CH122" s="7"/>
-      <c r="CI122" s="7"/>
-      <c r="CJ122" s="7"/>
-      <c r="CK122" s="7"/>
-      <c r="CL122" s="7"/>
-      <c r="CM122" s="7"/>
-      <c r="CN122" s="7"/>
-      <c r="CO122" s="7"/>
-      <c r="CP122" s="7"/>
-      <c r="CQ122" s="7"/>
-      <c r="CR122" s="7"/>
-      <c r="CS122" s="7"/>
-      <c r="CT122" s="7"/>
-      <c r="CU122" s="7"/>
-      <c r="CV122" s="7"/>
-      <c r="CW122" s="7"/>
-      <c r="CX122" s="7"/>
-      <c r="CY122" s="7"/>
-      <c r="CZ122" s="7"/>
-      <c r="DA122" s="7"/>
-      <c r="DB122" s="7"/>
-      <c r="DC122" s="7"/>
-      <c r="DD122" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="L122" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="N122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="O122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="R122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="S122" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="T122" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="U122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="V122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="W122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="X122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK122" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL122" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV122" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW122" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ122" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA122" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB122" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC122" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD122" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE122" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF122" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG122" s="73" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="123" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="59"/>
+    <row r="123" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A123" s="64"/>
       <c r="B123" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C123" s="18"/>
       <c r="D123" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F123" s="30"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="31"/>
-      <c r="L123" s="30"/>
-      <c r="M123" s="15"/>
-      <c r="N123" s="12"/>
-      <c r="O123" s="15"/>
-      <c r="P123" s="12"/>
-      <c r="Q123" s="15"/>
-      <c r="R123" s="12"/>
-      <c r="S123" s="31"/>
-      <c r="T123" s="30"/>
-      <c r="U123" s="15"/>
-      <c r="V123" s="12"/>
-      <c r="W123" s="15"/>
-      <c r="X123" s="12"/>
-      <c r="Y123" s="15"/>
-      <c r="Z123" s="12"/>
-      <c r="AA123" s="15"/>
-      <c r="AB123" s="12"/>
-      <c r="AC123" s="15"/>
-      <c r="AD123" s="12"/>
-      <c r="AE123" s="15"/>
-      <c r="AF123" s="12"/>
-      <c r="AG123" s="15"/>
-      <c r="AH123" s="12"/>
-      <c r="AI123" s="15"/>
-      <c r="AJ123" s="12"/>
-      <c r="AK123" s="31"/>
-      <c r="AL123" s="30"/>
-      <c r="AM123" s="15"/>
-      <c r="AN123" s="12"/>
-      <c r="AO123" s="15"/>
-      <c r="AP123" s="12"/>
-      <c r="AQ123" s="15"/>
-      <c r="AR123" s="12"/>
-      <c r="AS123" s="15"/>
-      <c r="AT123" s="12"/>
-      <c r="AU123" s="15"/>
-      <c r="AV123" s="48"/>
-      <c r="AW123" s="45"/>
-      <c r="AX123" s="12"/>
-      <c r="AY123" s="15"/>
-      <c r="AZ123" s="48"/>
-      <c r="BA123" s="45"/>
-      <c r="BB123" s="12"/>
-      <c r="BC123" s="31"/>
-      <c r="BD123" s="30"/>
-      <c r="BE123" s="31"/>
-      <c r="BF123" s="42"/>
-      <c r="BG123" s="38"/>
-      <c r="BH123" s="7"/>
-      <c r="BI123" s="7"/>
-      <c r="BJ123" s="7"/>
-      <c r="BK123" s="7"/>
-      <c r="BL123" s="7"/>
-      <c r="BM123" s="7"/>
-      <c r="BN123" s="7"/>
-      <c r="BO123" s="7"/>
-      <c r="BP123" s="7"/>
-      <c r="BQ123" s="7"/>
-      <c r="BR123" s="7"/>
-      <c r="BS123" s="7"/>
-      <c r="BT123" s="7"/>
-      <c r="BU123" s="7"/>
-      <c r="BV123" s="7"/>
-      <c r="BW123" s="7"/>
-      <c r="BX123" s="7"/>
-      <c r="BY123" s="7"/>
-      <c r="BZ123" s="7"/>
-      <c r="CA123" s="7"/>
-      <c r="CB123" s="7"/>
-      <c r="CC123" s="7"/>
-      <c r="CD123" s="7"/>
-      <c r="CE123" s="7"/>
-      <c r="CF123" s="7"/>
-      <c r="CG123" s="7"/>
-      <c r="CH123" s="7"/>
-      <c r="CI123" s="7"/>
-      <c r="CJ123" s="7"/>
-      <c r="CK123" s="7"/>
-      <c r="CL123" s="7"/>
-      <c r="CM123" s="7"/>
-      <c r="CN123" s="7"/>
-      <c r="CO123" s="7"/>
-      <c r="CP123" s="7"/>
-      <c r="CQ123" s="7"/>
-      <c r="CR123" s="7"/>
-      <c r="CS123" s="7"/>
-      <c r="CT123" s="7"/>
-      <c r="CU123" s="7"/>
-      <c r="CV123" s="7"/>
-      <c r="CW123" s="7"/>
-      <c r="CX123" s="7"/>
-      <c r="CY123" s="7"/>
-      <c r="CZ123" s="7"/>
-      <c r="DA123" s="7"/>
-      <c r="DB123" s="7"/>
-      <c r="DC123" s="7"/>
-      <c r="DD123" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="L123" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="N123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="O123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="R123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="S123" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="T123" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="U123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="V123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="W123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="X123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK123" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL123" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV123" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW123" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ123" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA123" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB123" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC123" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD123" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE123" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF123" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG123" s="73" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="124" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="59"/>
+    <row r="124" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A124" s="64"/>
       <c r="B124" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="18"/>
       <c r="D124" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F124" s="30"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="31"/>
-      <c r="L124" s="30"/>
-      <c r="M124" s="15"/>
-      <c r="N124" s="12"/>
-      <c r="O124" s="15"/>
-      <c r="P124" s="12"/>
-      <c r="Q124" s="15"/>
-      <c r="R124" s="12"/>
-      <c r="S124" s="31"/>
-      <c r="T124" s="30"/>
-      <c r="U124" s="15"/>
-      <c r="V124" s="12"/>
-      <c r="W124" s="15"/>
-      <c r="X124" s="12"/>
-      <c r="Y124" s="15"/>
-      <c r="Z124" s="12"/>
-      <c r="AA124" s="15"/>
-      <c r="AB124" s="12"/>
-      <c r="AC124" s="15"/>
-      <c r="AD124" s="12"/>
-      <c r="AE124" s="15"/>
-      <c r="AF124" s="12"/>
-      <c r="AG124" s="15"/>
-      <c r="AH124" s="12"/>
-      <c r="AI124" s="15"/>
-      <c r="AJ124" s="12"/>
-      <c r="AK124" s="31"/>
-      <c r="AL124" s="30"/>
-      <c r="AM124" s="15"/>
-      <c r="AN124" s="12"/>
-      <c r="AO124" s="15"/>
-      <c r="AP124" s="12"/>
-      <c r="AQ124" s="15"/>
-      <c r="AR124" s="12"/>
-      <c r="AS124" s="15"/>
-      <c r="AT124" s="12"/>
-      <c r="AU124" s="15"/>
-      <c r="AV124" s="48"/>
-      <c r="AW124" s="45"/>
-      <c r="AX124" s="12"/>
-      <c r="AY124" s="15"/>
-      <c r="AZ124" s="48"/>
-      <c r="BA124" s="45"/>
-      <c r="BB124" s="12"/>
-      <c r="BC124" s="31"/>
-      <c r="BD124" s="30"/>
-      <c r="BE124" s="31"/>
-      <c r="BF124" s="42"/>
-      <c r="BG124" s="38"/>
-      <c r="BH124" s="7"/>
-      <c r="BI124" s="7"/>
-      <c r="BJ124" s="7"/>
-      <c r="BK124" s="7"/>
-      <c r="BL124" s="7"/>
-      <c r="BM124" s="7"/>
-      <c r="BN124" s="7"/>
-      <c r="BO124" s="7"/>
-      <c r="BP124" s="7"/>
-      <c r="BQ124" s="7"/>
-      <c r="BR124" s="7"/>
-      <c r="BS124" s="7"/>
-      <c r="BT124" s="7"/>
-      <c r="BU124" s="7"/>
-      <c r="BV124" s="7"/>
-      <c r="BW124" s="7"/>
-      <c r="BX124" s="7"/>
-      <c r="BY124" s="7"/>
-      <c r="BZ124" s="7"/>
-      <c r="CA124" s="7"/>
-      <c r="CB124" s="7"/>
-      <c r="CC124" s="7"/>
-      <c r="CD124" s="7"/>
-      <c r="CE124" s="7"/>
-      <c r="CF124" s="7"/>
-      <c r="CG124" s="7"/>
-      <c r="CH124" s="7"/>
-      <c r="CI124" s="7"/>
-      <c r="CJ124" s="7"/>
-      <c r="CK124" s="7"/>
-      <c r="CL124" s="7"/>
-      <c r="CM124" s="7"/>
-      <c r="CN124" s="7"/>
-      <c r="CO124" s="7"/>
-      <c r="CP124" s="7"/>
-      <c r="CQ124" s="7"/>
-      <c r="CR124" s="7"/>
-      <c r="CS124" s="7"/>
-      <c r="CT124" s="7"/>
-      <c r="CU124" s="7"/>
-      <c r="CV124" s="7"/>
-      <c r="CW124" s="7"/>
-      <c r="CX124" s="7"/>
-      <c r="CY124" s="7"/>
-      <c r="CZ124" s="7"/>
-      <c r="DA124" s="7"/>
-      <c r="DB124" s="7"/>
-      <c r="DC124" s="7"/>
-      <c r="DD124" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="L124" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="N124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="O124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="R124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="S124" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="T124" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="U124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="V124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="W124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="X124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK124" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL124" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV124" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW124" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ124" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA124" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB124" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC124" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD124" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE124" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF124" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG124" s="73" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="125" spans="1:108" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:108" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
@@ -12793,853 +12987,12 @@
       <c r="BF125" s="39"/>
       <c r="BG125" s="39"/>
     </row>
-    <row r="126" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A126" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="B126" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" s="7">
-        <v>13</v>
-      </c>
-      <c r="E126" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="L126" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S126" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="T126" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="U126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="V126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="W126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK126" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL126" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV126" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW126" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ126" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA126" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB126" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC126" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD126" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE126" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF126" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="BG126" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A127" s="59"/>
-      <c r="B127" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="L127" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S127" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="T127" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="U127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="V127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="W127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK127" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL127" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV127" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW127" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ127" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA127" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC127" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD127" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE127" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF127" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="BG127" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A128" s="59"/>
-      <c r="B128" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="L128" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S128" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="T128" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="U128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="V128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="W128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK128" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL128" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV128" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW128" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY128" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ128" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA128" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC128" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD128" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE128" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF128" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="BG128" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A129" s="59"/>
-      <c r="B129" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="L129" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S129" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="T129" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="U129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="V129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="W129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK129" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL129" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV129" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW129" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY129" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ129" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA129" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC129" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD129" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE129" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF129" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="BG129" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A130" s="59"/>
-      <c r="B130" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="L130" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S130" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="T130" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="U130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="V130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="W130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK130" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL130" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV130" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW130" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY130" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ130" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA130" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC130" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD130" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE130" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF130" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="BG130" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="18"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="32"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="22"/>
-      <c r="J131" s="22"/>
-      <c r="K131" s="33"/>
-      <c r="L131" s="32"/>
-      <c r="M131" s="22"/>
-      <c r="N131" s="22"/>
-      <c r="O131" s="22"/>
-      <c r="P131" s="22"/>
-      <c r="Q131" s="22"/>
-      <c r="R131" s="22"/>
-      <c r="S131" s="33"/>
-      <c r="T131" s="32"/>
-      <c r="U131" s="22"/>
-      <c r="V131" s="22"/>
-      <c r="W131" s="22"/>
-      <c r="X131" s="22"/>
-      <c r="Y131" s="22"/>
-      <c r="Z131" s="22"/>
-      <c r="AA131" s="22"/>
-      <c r="AB131" s="22"/>
-      <c r="AC131" s="22"/>
-      <c r="AD131" s="22"/>
-      <c r="AE131" s="22"/>
-      <c r="AF131" s="22"/>
-      <c r="AG131" s="22"/>
-      <c r="AH131" s="22"/>
-      <c r="AI131" s="22"/>
-      <c r="AJ131" s="22"/>
-      <c r="AK131" s="33"/>
-      <c r="AL131" s="32"/>
-      <c r="AM131" s="22"/>
-      <c r="AN131" s="22"/>
-      <c r="AO131" s="22"/>
-      <c r="AP131" s="22"/>
-      <c r="AQ131" s="22"/>
-      <c r="AR131" s="22"/>
-      <c r="AS131" s="22"/>
-      <c r="AT131" s="22"/>
-      <c r="AU131" s="22"/>
-      <c r="AV131" s="33"/>
-      <c r="AW131" s="32"/>
-      <c r="AX131" s="22"/>
-      <c r="AY131" s="22"/>
-      <c r="AZ131" s="33"/>
-      <c r="BA131" s="32"/>
-      <c r="BB131" s="22"/>
-      <c r="BC131" s="33"/>
-      <c r="BD131" s="32"/>
-      <c r="BE131" s="33"/>
-      <c r="BF131" s="39"/>
-      <c r="BG131" s="39"/>
-    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="A109:A118"/>
     <mergeCell ref="A76:A88"/>
     <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="F1:K1"/>
@@ -13655,11 +13008,6 @@
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="A44:A59"/>
     <mergeCell ref="A61:A74"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="A120:A124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Modelo BD.xlsx
+++ b/Modelo BD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCsito\Desktop\Ubuntu Shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\GrupLAC-Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2C1128-88D1-42EE-89BD-3399CF4A0D32}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="180">
   <si>
     <t>Año Formación</t>
   </si>
@@ -583,7 +582,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -983,6 +982,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1004,19 +1016,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1296,17 +1295,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="L42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
@@ -1374,72 +1373,72 @@
   <sheetData>
     <row r="1" spans="1:190" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="7"/>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="67" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="67" t="s">
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="67" t="s">
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="65" t="s">
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="65" t="s">
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="65" t="s">
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="BE1" s="66"/>
+      <c r="BE1" s="71"/>
       <c r="BF1" s="34" t="s">
         <v>93</v>
       </c>
@@ -1748,7 +1747,7 @@
       <c r="GH2" s="5"/>
     </row>
     <row r="3" spans="1:190" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="69" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -1952,7 +1951,7 @@
       <c r="GH3" s="2"/>
     </row>
     <row r="4" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
@@ -1967,7 +1966,7 @@
       </c>
     </row>
     <row r="5" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
@@ -1982,7 +1981,7 @@
       </c>
     </row>
     <row r="6" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
@@ -1997,7 +1996,7 @@
       </c>
     </row>
     <row r="7" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
@@ -2012,7 +2011,7 @@
       </c>
     </row>
     <row r="8" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
@@ -2028,7 +2027,7 @@
       <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="17" t="s">
         <v>111</v>
       </c>
@@ -2043,7 +2042,7 @@
       </c>
     </row>
     <row r="10" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="17" t="s">
         <v>13</v>
       </c>
@@ -2058,7 +2057,7 @@
       </c>
     </row>
     <row r="11" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="17" t="s">
         <v>111</v>
       </c>
@@ -2073,7 +2072,7 @@
       </c>
     </row>
     <row r="12" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="17" t="s">
         <v>111</v>
       </c>
@@ -2088,7 +2087,7 @@
       </c>
     </row>
     <row r="13" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="17" t="s">
         <v>111</v>
       </c>
@@ -2103,7 +2102,7 @@
       </c>
     </row>
     <row r="14" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="17" t="s">
         <v>111</v>
       </c>
@@ -2118,7 +2117,7 @@
       </c>
     </row>
     <row r="15" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="17" t="s">
         <v>111</v>
       </c>
@@ -2133,7 +2132,7 @@
       </c>
     </row>
     <row r="16" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="17" t="s">
         <v>111</v>
       </c>
@@ -2148,7 +2147,7 @@
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="17" t="s">
         <v>111</v>
       </c>
@@ -2163,7 +2162,7 @@
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="17" t="s">
         <v>111</v>
       </c>
@@ -2178,7 +2177,7 @@
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="17" t="s">
         <v>111</v>
       </c>
@@ -2253,7 +2252,7 @@
       <c r="BG20" s="38"/>
     </row>
     <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="69" t="s">
         <v>100</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -2273,7 +2272,7 @@
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="17" t="s">
         <v>12</v>
       </c>
@@ -2292,7 +2291,7 @@
       <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="17" t="s">
         <v>111</v>
       </c>
@@ -2367,7 +2366,7 @@
       <c r="BG24" s="38"/>
     </row>
     <row r="25" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="69" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -2387,7 +2386,7 @@
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="17" t="s">
         <v>12</v>
       </c>
@@ -2405,7 +2404,7 @@
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="17" t="s">
         <v>111</v>
       </c>
@@ -2480,7 +2479,7 @@
       <c r="BG28" s="38"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="68" t="s">
         <v>98</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -2501,7 +2500,7 @@
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="17" t="s">
         <v>12</v>
       </c>
@@ -2519,7 +2518,7 @@
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="17" t="s">
         <v>111</v>
       </c>
@@ -2594,7 +2593,7 @@
       <c r="BG32" s="38"/>
     </row>
     <row r="33" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="69" t="s">
         <v>97</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -2615,7 +2614,7 @@
       </c>
     </row>
     <row r="34" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="17" t="s">
         <v>12</v>
       </c>
@@ -2633,7 +2632,7 @@
       </c>
     </row>
     <row r="35" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="17" t="s">
         <v>12</v>
       </c>
@@ -2648,7 +2647,7 @@
       </c>
     </row>
     <row r="36" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="17" t="s">
         <v>111</v>
       </c>
@@ -2663,7 +2662,7 @@
       </c>
     </row>
     <row r="37" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="17" t="s">
         <v>13</v>
       </c>
@@ -2781,7 +2780,7 @@
       <c r="DD37" s="7"/>
     </row>
     <row r="38" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
@@ -2899,7 +2898,7 @@
       <c r="DD38" s="7"/>
     </row>
     <row r="39" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="17" t="s">
         <v>12</v>
       </c>
@@ -3017,7 +3016,7 @@
       <c r="DD39" s="7"/>
     </row>
     <row r="40" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="17" t="s">
         <v>13</v>
       </c>
@@ -3135,7 +3134,7 @@
       <c r="DD40" s="7"/>
     </row>
     <row r="41" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="17" t="s">
         <v>13</v>
       </c>
@@ -3253,7 +3252,7 @@
       <c r="DD41" s="7"/>
     </row>
     <row r="42" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="17" t="s">
         <v>13</v>
       </c>
@@ -3431,7 +3430,7 @@
       <c r="BG43" s="38"/>
     </row>
     <row r="44" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="69" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -3452,16 +3451,16 @@
       <c r="M44" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="N44" s="72" t="s">
+      <c r="N44" s="64" t="s">
         <v>18</v>
       </c>
       <c r="O44" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P44" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q44" s="15" t="s">
+      <c r="P44" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q44" s="52" t="s">
         <v>18</v>
       </c>
       <c r="R44" s="12" t="s">
@@ -3592,7 +3591,7 @@
       </c>
     </row>
     <row r="45" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="17" t="s">
         <v>12</v>
       </c>
@@ -3617,10 +3616,10 @@
       <c r="O45" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q45" s="15" t="s">
+      <c r="P45" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q45" s="52" t="s">
         <v>18</v>
       </c>
       <c r="R45" s="12" t="s">
@@ -3751,7 +3750,7 @@
       </c>
     </row>
     <row r="46" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="17" t="s">
         <v>12</v>
       </c>
@@ -3782,10 +3781,10 @@
       <c r="O46" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P46" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q46" s="15" t="s">
+      <c r="P46" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q46" s="52" t="s">
         <v>18</v>
       </c>
       <c r="R46" s="12" t="s">
@@ -3965,7 +3964,7 @@
       <c r="DD46" s="7"/>
     </row>
     <row r="47" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="69"/>
       <c r="B47" s="17" t="s">
         <v>111</v>
       </c>
@@ -3994,10 +3993,10 @@
       <c r="O47" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P47" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q47" s="15" t="s">
+      <c r="P47" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q47" s="52" t="s">
         <v>18</v>
       </c>
       <c r="R47" s="12" t="s">
@@ -4173,7 +4172,7 @@
       <c r="DD47" s="7"/>
     </row>
     <row r="48" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="17" t="s">
         <v>13</v>
       </c>
@@ -4192,7 +4191,10 @@
       <c r="N48" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="15" t="s">
+      <c r="P48" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q48" s="64" t="s">
         <v>18</v>
       </c>
       <c r="R48" s="12" t="s">
@@ -4272,7 +4274,7 @@
       </c>
     </row>
     <row r="49" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="17" t="s">
         <v>12</v>
       </c>
@@ -4301,10 +4303,10 @@
       <c r="O49" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q49" s="15" t="s">
+      <c r="P49" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q49" s="52" t="s">
         <v>18</v>
       </c>
       <c r="R49" s="12" t="s">
@@ -4476,7 +4478,7 @@
       <c r="DD49" s="7"/>
     </row>
     <row r="50" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="17" t="s">
         <v>13</v>
       </c>
@@ -4600,7 +4602,7 @@
       <c r="DD50" s="7"/>
     </row>
     <row r="51" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="17" t="s">
         <v>13</v>
       </c>
@@ -4627,10 +4629,10 @@
       <c r="O51" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P51" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q51" s="15" t="s">
+      <c r="P51" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q51" s="52" t="s">
         <v>18</v>
       </c>
       <c r="R51" s="12" t="s">
@@ -4732,7 +4734,7 @@
       <c r="DD51" s="7"/>
     </row>
     <row r="52" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="17" t="s">
         <v>13</v>
       </c>
@@ -4759,10 +4761,10 @@
         <v>18</v>
       </c>
       <c r="O52" s="15"/>
-      <c r="P52" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q52" s="15" t="s">
+      <c r="P52" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q52" s="52" t="s">
         <v>18</v>
       </c>
       <c r="R52" s="12" t="s">
@@ -4860,7 +4862,7 @@
       <c r="DD52" s="7"/>
     </row>
     <row r="53" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
+      <c r="A53" s="69"/>
       <c r="B53" s="17" t="s">
         <v>111</v>
       </c>
@@ -4885,13 +4887,11 @@
         <v>18</v>
       </c>
       <c r="O53" s="15"/>
-      <c r="P53" s="12" t="s">
+      <c r="P53" s="52" t="s">
         <v>18</v>
       </c>
       <c r="Q53" s="15"/>
-      <c r="R53" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="R53" s="12"/>
       <c r="S53" s="30"/>
       <c r="T53" s="29"/>
       <c r="U53" s="15"/>
@@ -4986,7 +4986,7 @@
       <c r="DD53" s="7"/>
     </row>
     <row r="54" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
+      <c r="A54" s="69"/>
       <c r="B54" s="17" t="s">
         <v>13</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="DD54" s="7"/>
     </row>
     <row r="55" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
+      <c r="A55" s="69"/>
       <c r="B55" s="17" t="s">
         <v>111</v>
       </c>
@@ -5160,7 +5160,7 @@
       </c>
     </row>
     <row r="56" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
+      <c r="A56" s="69"/>
       <c r="B56" s="17" t="s">
         <v>111</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="DD56" s="7"/>
     </row>
     <row r="57" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
+      <c r="A57" s="69"/>
       <c r="B57" s="17" t="s">
         <v>111</v>
       </c>
@@ -5448,7 +5448,7 @@
       <c r="DD57" s="7"/>
     </row>
     <row r="58" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="17" t="s">
         <v>111</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="DD58" s="7"/>
     </row>
     <row r="59" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="17" t="s">
         <v>111</v>
       </c>
@@ -5624,10 +5624,10 @@
       <c r="O59" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P59" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q59" s="15" t="s">
+      <c r="P59" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q59" s="52" t="s">
         <v>18</v>
       </c>
       <c r="R59" s="12" t="s">
@@ -5782,7 +5782,7 @@
       <c r="BG60" s="62"/>
     </row>
     <row r="61" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="69" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="17" t="s">
@@ -5809,10 +5809,10 @@
       <c r="O61" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P61" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q61" s="15" t="s">
+      <c r="P61" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q61" s="52" t="s">
         <v>18</v>
       </c>
       <c r="R61" s="12" t="s">
@@ -5823,7 +5823,7 @@
       </c>
     </row>
     <row r="62" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
+      <c r="A62" s="69"/>
       <c r="B62" s="17" t="s">
         <v>111</v>
       </c>
@@ -5836,7 +5836,10 @@
       <c r="L62" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q62" s="15" t="s">
+      <c r="Q62" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="R62" s="12" t="s">
         <v>18</v>
       </c>
       <c r="S62" s="30" t="s">
@@ -5844,7 +5847,7 @@
       </c>
     </row>
     <row r="63" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="17" t="s">
         <v>111</v>
       </c>
@@ -5865,7 +5868,7 @@
       <c r="M63" s="15"/>
       <c r="N63" s="12"/>
       <c r="O63" s="15"/>
-      <c r="P63" s="12" t="s">
+      <c r="P63" s="52" t="s">
         <v>18</v>
       </c>
       <c r="Q63" s="15"/>
@@ -5964,7 +5967,7 @@
       <c r="DD63" s="7"/>
     </row>
     <row r="64" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="17" t="s">
         <v>111</v>
       </c>
@@ -6084,7 +6087,7 @@
       <c r="DD64" s="7"/>
     </row>
     <row r="65" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="17" t="s">
         <v>13</v>
       </c>
@@ -6100,10 +6103,10 @@
       <c r="M65" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="N65" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q65" s="15" t="s">
+      <c r="N65" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q65" s="52" t="s">
         <v>18</v>
       </c>
       <c r="R65" s="12" t="s">
@@ -6115,7 +6118,7 @@
       <c r="Y65" s="23"/>
     </row>
     <row r="66" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="17" t="s">
         <v>111</v>
       </c>
@@ -6233,7 +6236,7 @@
       <c r="DD66" s="7"/>
     </row>
     <row r="67" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="17" t="s">
         <v>111</v>
       </c>
@@ -6351,7 +6354,7 @@
       <c r="DD67" s="7"/>
     </row>
     <row r="68" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A68" s="64"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="17" t="s">
         <v>13</v>
       </c>
@@ -6364,12 +6367,13 @@
       <c r="L68" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q68" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q68" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB68" s="16"/>
     </row>
     <row r="69" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="64"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="17" t="s">
         <v>13</v>
       </c>
@@ -6487,7 +6491,7 @@
       <c r="DD69" s="7"/>
     </row>
     <row r="70" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="17" t="s">
         <v>13</v>
       </c>
@@ -6605,7 +6609,7 @@
       <c r="DD70" s="7"/>
     </row>
     <row r="71" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="17" t="s">
         <v>13</v>
       </c>
@@ -6723,7 +6727,7 @@
       <c r="DD71" s="7"/>
     </row>
     <row r="72" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="64"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="17" t="s">
         <v>13</v>
       </c>
@@ -6841,7 +6845,7 @@
       <c r="DD72" s="7"/>
     </row>
     <row r="73" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="64"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="17" t="s">
         <v>12</v>
       </c>
@@ -6867,7 +6871,7 @@
       </c>
       <c r="O73" s="15"/>
       <c r="P73" s="12"/>
-      <c r="Q73" s="15" t="s">
+      <c r="Q73" s="52" t="s">
         <v>18</v>
       </c>
       <c r="R73" s="12"/>
@@ -6963,7 +6967,7 @@
       <c r="DD73" s="7"/>
     </row>
     <row r="74" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A74" s="64"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="17" t="s">
         <v>12</v>
       </c>
@@ -6979,15 +6983,15 @@
       <c r="N74" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="Q74" s="15" t="s">
+      <c r="Q74" s="52" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:108" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="74"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
-      <c r="E75" s="75"/>
+      <c r="E75" s="67"/>
       <c r="F75" s="59"/>
       <c r="G75" s="60"/>
       <c r="H75" s="60"/>
@@ -7044,7 +7048,7 @@
       <c r="BG75" s="62"/>
     </row>
     <row r="76" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="69" t="s">
         <v>129</v>
       </c>
       <c r="B76" s="17" t="s">
@@ -7200,7 +7204,7 @@
       <c r="DD76" s="7"/>
     </row>
     <row r="77" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="64"/>
+      <c r="A77" s="69"/>
       <c r="B77" s="17" t="s">
         <v>14</v>
       </c>
@@ -7318,7 +7322,7 @@
       <c r="DD77" s="7"/>
     </row>
     <row r="78" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="64"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="17" t="s">
         <v>14</v>
       </c>
@@ -7442,7 +7446,7 @@
       <c r="DD78" s="7"/>
     </row>
     <row r="79" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="64"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="17" t="s">
         <v>14</v>
       </c>
@@ -7560,7 +7564,7 @@
       <c r="DD79" s="7"/>
     </row>
     <row r="80" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="64"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="17" t="s">
         <v>14</v>
       </c>
@@ -7678,7 +7682,7 @@
       <c r="DD80" s="7"/>
     </row>
     <row r="81" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="64"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="17" t="s">
         <v>13</v>
       </c>
@@ -7796,7 +7800,7 @@
       <c r="DD81" s="7"/>
     </row>
     <row r="82" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="64"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="17" t="s">
         <v>13</v>
       </c>
@@ -7914,7 +7918,7 @@
       <c r="DD82" s="7"/>
     </row>
     <row r="83" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="64"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="17" t="s">
         <v>13</v>
       </c>
@@ -8032,7 +8036,7 @@
       <c r="DD83" s="7"/>
     </row>
     <row r="84" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="64"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="17" t="s">
         <v>14</v>
       </c>
@@ -8168,7 +8172,7 @@
       <c r="DD84" s="7"/>
     </row>
     <row r="85" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="17" t="s">
         <v>14</v>
       </c>
@@ -8290,7 +8294,7 @@
       <c r="DD85" s="7"/>
     </row>
     <row r="86" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="64"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="17" t="s">
         <v>13</v>
       </c>
@@ -8412,7 +8416,7 @@
       <c r="DD86" s="7"/>
     </row>
     <row r="87" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="64"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="17" t="s">
         <v>14</v>
       </c>
@@ -8532,7 +8536,7 @@
       <c r="DD87" s="7"/>
     </row>
     <row r="88" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="17" t="s">
         <v>14</v>
       </c>
@@ -8710,7 +8714,7 @@
       <c r="BG89" s="38"/>
     </row>
     <row r="90" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="64" t="s">
+      <c r="A90" s="69" t="s">
         <v>145</v>
       </c>
       <c r="B90" s="17" t="s">
@@ -8852,7 +8856,7 @@
       <c r="DD90" s="7"/>
     </row>
     <row r="91" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="64"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="17" t="s">
         <v>111</v>
       </c>
@@ -8970,7 +8974,7 @@
       <c r="DD91" s="7"/>
     </row>
     <row r="92" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="64"/>
+      <c r="A92" s="69"/>
       <c r="B92" s="17" t="s">
         <v>13</v>
       </c>
@@ -9100,7 +9104,7 @@
       <c r="DD92" s="7"/>
     </row>
     <row r="93" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="64"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="17" t="s">
         <v>13</v>
       </c>
@@ -9228,7 +9232,7 @@
       <c r="DD93" s="7"/>
     </row>
     <row r="94" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="64"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="17" t="s">
         <v>111</v>
       </c>
@@ -9346,7 +9350,7 @@
       <c r="DD94" s="7"/>
     </row>
     <row r="95" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="64"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="17" t="s">
         <v>13</v>
       </c>
@@ -9464,7 +9468,7 @@
       <c r="DD95" s="7"/>
     </row>
     <row r="96" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="64"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="17" t="s">
         <v>111</v>
       </c>
@@ -9582,7 +9586,7 @@
       <c r="DD96" s="7"/>
     </row>
     <row r="97" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="64"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="17" t="s">
         <v>13</v>
       </c>
@@ -9764,7 +9768,7 @@
       <c r="BG98" s="38"/>
     </row>
     <row r="99" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="64" t="s">
+      <c r="A99" s="69" t="s">
         <v>155</v>
       </c>
       <c r="B99" s="17" t="s">
@@ -9890,7 +9894,7 @@
       <c r="DD99" s="7"/>
     </row>
     <row r="100" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="64"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="17" t="s">
         <v>13</v>
       </c>
@@ -10010,7 +10014,7 @@
       <c r="DD100" s="7"/>
     </row>
     <row r="101" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="64"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="17" t="s">
         <v>111</v>
       </c>
@@ -10128,7 +10132,7 @@
       <c r="DD101" s="7"/>
     </row>
     <row r="102" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="64"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="17" t="s">
         <v>111</v>
       </c>
@@ -10246,7 +10250,7 @@
       <c r="DD102" s="7"/>
     </row>
     <row r="103" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="64"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="17" t="s">
         <v>13</v>
       </c>
@@ -10366,7 +10370,7 @@
       <c r="DD103" s="7"/>
     </row>
     <row r="104" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="64"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="17" t="s">
         <v>111</v>
       </c>
@@ -10484,7 +10488,7 @@
       <c r="DD104" s="7"/>
     </row>
     <row r="105" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="64"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="17" t="s">
         <v>111</v>
       </c>
@@ -10602,7 +10606,7 @@
       <c r="DD105" s="7"/>
     </row>
     <row r="106" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="64"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="17" t="s">
         <v>111</v>
       </c>
@@ -10720,7 +10724,7 @@
       <c r="DD106" s="7"/>
     </row>
     <row r="107" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="64"/>
+      <c r="A107" s="69"/>
       <c r="B107" s="17" t="s">
         <v>13</v>
       </c>
@@ -10900,7 +10904,7 @@
       <c r="BG108" s="38"/>
     </row>
     <row r="109" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="64" t="s">
+      <c r="A109" s="69" t="s">
         <v>179</v>
       </c>
       <c r="B109" s="17" t="s">
@@ -11026,7 +11030,7 @@
       <c r="DD109" s="7"/>
     </row>
     <row r="110" spans="1:108" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="64"/>
+      <c r="A110" s="69"/>
       <c r="B110" s="17" t="s">
         <v>111</v>
       </c>
@@ -11144,7 +11148,7 @@
       <c r="DD110" s="7"/>
     </row>
     <row r="111" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="64"/>
+      <c r="A111" s="69"/>
       <c r="B111" s="17" t="s">
         <v>13</v>
       </c>
@@ -11262,7 +11266,7 @@
       <c r="DD111" s="7"/>
     </row>
     <row r="112" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="64"/>
+      <c r="A112" s="69"/>
       <c r="B112" s="17" t="s">
         <v>13</v>
       </c>
@@ -11380,7 +11384,7 @@
       <c r="DD112" s="7"/>
     </row>
     <row r="113" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="64"/>
+      <c r="A113" s="69"/>
       <c r="B113" s="17" t="s">
         <v>13</v>
       </c>
@@ -11498,7 +11502,7 @@
       <c r="DD113" s="7"/>
     </row>
     <row r="114" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="64"/>
+      <c r="A114" s="69"/>
       <c r="B114" s="17" t="s">
         <v>13</v>
       </c>
@@ -11616,7 +11620,7 @@
       <c r="DD114" s="7"/>
     </row>
     <row r="115" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
+      <c r="A115" s="69"/>
       <c r="B115" s="17" t="s">
         <v>13</v>
       </c>
@@ -11734,7 +11738,7 @@
       <c r="DD115" s="7"/>
     </row>
     <row r="116" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
+      <c r="A116" s="69"/>
       <c r="B116" s="17" t="s">
         <v>13</v>
       </c>
@@ -11852,7 +11856,7 @@
       <c r="DD116" s="7"/>
     </row>
     <row r="117" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="64"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="17" t="s">
         <v>111</v>
       </c>
@@ -11970,7 +11974,7 @@
       <c r="DD117" s="7"/>
     </row>
     <row r="118" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="64"/>
+      <c r="A118" s="69"/>
       <c r="B118" s="17" t="s">
         <v>13</v>
       </c>
@@ -12148,7 +12152,7 @@
       <c r="BG119" s="38"/>
     </row>
     <row r="120" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A120" s="64" t="s">
+      <c r="A120" s="69" t="s">
         <v>102</v>
       </c>
       <c r="B120" s="17" t="s">
@@ -12309,7 +12313,7 @@
       </c>
     </row>
     <row r="121" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A121" s="64"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="17" t="s">
         <v>14</v>
       </c>
@@ -12465,7 +12469,7 @@
       </c>
     </row>
     <row r="122" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A122" s="64"/>
+      <c r="A122" s="69"/>
       <c r="B122" s="17" t="s">
         <v>14</v>
       </c>
@@ -12621,7 +12625,7 @@
       </c>
     </row>
     <row r="123" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A123" s="64"/>
+      <c r="A123" s="69"/>
       <c r="B123" s="17" t="s">
         <v>14</v>
       </c>
@@ -12777,7 +12781,7 @@
       </c>
     </row>
     <row r="124" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A124" s="64"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="17" t="s">
         <v>14</v>
       </c>
@@ -12994,6 +12998,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="A76:A88"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="A44:A59"/>
@@ -13008,11 +13017,6 @@
     <mergeCell ref="AL1:AV1"/>
     <mergeCell ref="AW1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="A76:A88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
